--- a/data/validation_scaled.xlsx
+++ b/data/validation_scaled.xlsx
@@ -922,275 +922,275 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1810725683033203</v>
+        <v>-0.395704602084226</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3149464768987594</v>
+        <v>-0.2990101515329559</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1070327326538014</v>
+        <v>-0.3444676892836117</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1676382185596985</v>
+        <v>-0.264216114654275</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3125765825428566</v>
+        <v>0.7703324988710014</v>
       </c>
       <c r="F2" t="n">
-        <v>64.10144835952801</v>
+        <v>9.62433622977095</v>
       </c>
       <c r="G2" t="n">
-        <v>33.02892087105523</v>
+        <v>5.840839504643835</v>
       </c>
       <c r="H2" t="n">
-        <v>1.32674979249922</v>
+        <v>1.404535823589422</v>
       </c>
       <c r="I2" t="n">
-        <v>3.181818181818182</v>
+        <v>0.9147727272727273</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1617685027543694</v>
+        <v>-0.2866252832736341</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Marvin Vettori</t>
+          <t>Leon Edwards</t>
         </is>
       </c>
       <c r="N2" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5901844860801387</v>
+        <v>-0.2922333238051739</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4581321350439047</v>
+        <v>-0.3769501021495114</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03249672750172681</v>
+        <v>0.6453605950365011</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1229962902642056</v>
+        <v>0.03233775975671565</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2045454545454546</v>
+        <v>-0.04090909090909096</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1954006284367634</v>
+        <v>0.1031618224666144</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1420171717290908</v>
+        <v>-0.02540583957818698</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="W2" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.273081356497284</v>
+        <v>-0.2650918824027695</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.2619531399413019</v>
+        <v>-0.2502063391159437</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.416258632770157</v>
+        <v>-0.6734447785033378</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.951509050505281</v>
+        <v>-0.4051322168245075</v>
       </c>
       <c r="AB2" t="n">
-        <v>-7.257659891917553e-06</v>
+        <v>0.0009110044715115404</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.263976188992925</v>
+        <v>-0.3520804362636419</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.422889088865382</v>
+        <v>-0.3163017288966489</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.271563329889137e-06</v>
+        <v>351.9999895108243</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.258665978567049</v>
+        <v>-0.73110412946674</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.63102307470827</v>
+        <v>-0.5559622095816975</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.4442855667800119</v>
+        <v>0.8045215076210384</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.0009603531015133417</v>
+        <v>0.3682392982255623</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.246908487987365</v>
+        <v>-0.14693737061205</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1607920475195793</v>
+        <v>0.4068119507656687</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.4580349910463921</v>
+        <v>0.9054271738697669</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.8734288767378956</v>
+        <v>-0.7519001923120632</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7964568416852553</v>
+        <v>-0.3906305544708329</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.4335216495565776</v>
+        <v>-0.01437492315770051</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.4783159411936376</v>
+        <v>0.01632716665418358</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.02951009816584118</v>
+        <v>0.2295566629558789</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.1059870794278759</v>
+        <v>0.3084063786582985</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.6146343043567256</v>
+        <v>1.33494574347485</v>
       </c>
       <c r="AT2" t="n">
-        <v>45.07887879249093</v>
+        <v>34.2641492204844</v>
       </c>
       <c r="AU2" t="n">
-        <v>22.0098627510626</v>
+        <v>20.90981470463451</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.3236530880420499</v>
+        <v>0.6445466491458607</v>
       </c>
       <c r="AW2" t="n">
+        <v>1.217391304347826</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.1001700390109197</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>Sean Brady</t>
+        </is>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.13986433796519</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.3026278715317849</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.668576977375363</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.8263821906212969</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.4382222222222221</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.091213711762322</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-0.1777623193766601</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-0.1530431272583465</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.3566463193901674</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.9317998282171414</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>7.510186136983178e-06</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.7868657342205764</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.9751981604112867</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.2499990761278958</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.2923359547615102</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6870218723403961</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.6638579126779545</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1.03372786139505</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>2.03985112057855</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>2.403330575179982</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1.213481854979021</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.7924184880870809</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1.578698108162773</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.5423728813559329</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.4363636363636358</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK2" t="n">
         <v>1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-0.1025298839000051</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>Roman Dolidze</t>
-        </is>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.2169822627346709</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>-0.008156800048235931</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>-0.05393449088245192</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1.028847631110377</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>-0.2711999999999999</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.1791831348875271</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>3.802983067321182</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>3.568137039044118</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.8720527936594529</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1.170888381613284</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.007692307463059054</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>2.057271820281606</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>2.166535366555872</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>256.0149001630273</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.9003998426731684</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1.171482438660861</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.277507541220258</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.007505732881779499</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.5370899043239056</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.3845809974136337</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.3271200696493088</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.5830950006257195</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.5888056423670509</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.186440677966102</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1.236363636363636</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
@@ -1219,254 +1219,254 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.795483125941156</v>
+        <v>0.09665794284418565</v>
       </c>
       <c r="B3" t="n">
-        <v>4.692953058188937</v>
+        <v>-0.2089822876695997</v>
       </c>
       <c r="C3" t="n">
-        <v>7.711524932247147</v>
+        <v>-0.04400909167002825</v>
       </c>
       <c r="D3" t="n">
-        <v>9.519464832438061</v>
+        <v>-0.02674450545419586</v>
       </c>
       <c r="E3" t="n">
-        <v>1.609117880865583</v>
+        <v>1.299084950547833</v>
       </c>
       <c r="F3" t="n">
-        <v>21.02624832132829</v>
+        <v>16.76933990217769</v>
       </c>
       <c r="G3" t="n">
-        <v>12.69466487608351</v>
+        <v>10.20700007975618</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03321267692481492</v>
+        <v>0.6411363101310523</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4375</v>
+        <v>2.982954545454545</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1617685027543694</v>
+        <v>-0.2866252832736341</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Chidi Njokuani</t>
+          <t>Jan Blachowicz</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1506864726154416</v>
+        <v>-0.0378526448032513</v>
       </c>
       <c r="P3" t="n">
-        <v>0.471441107501363</v>
+        <v>-0.05274776541259549</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.410357973574953</v>
+        <v>0.415468194229507</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.1532953764024612</v>
+        <v>-0.05986224024328436</v>
       </c>
       <c r="S3" t="n">
-        <v>-1.022727272727273</v>
+        <v>0.340909090909091</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3106991358994501</v>
+        <v>0.1723409269442264</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.5423328414739725</v>
+        <v>-0.09135789730013097</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>4.2</v>
+        <v>5.2</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.2728819339434404</v>
+        <v>0.3602485766487475</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.2616654082276462</v>
+        <v>0.6474757280377293</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.09415471249075044</v>
+        <v>-0.3908593020603319</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.625310527373541</v>
+        <v>0.2235636397209021</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01101270038617779</v>
+        <v>0.004598253043535379</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.239214497457888</v>
+        <v>0.1422240114499927</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.395550045701814</v>
+        <v>0.1984585628942628</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6571647558780831</v>
+        <v>-0.3550592860756448</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.883686045444647</v>
+        <v>0.02029728382547645</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.568171172525047</v>
+        <v>1.285744396285219</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0009615408100542469</v>
+        <v>4.429267062101677</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.2315841283462663</v>
+        <v>0.6562460654543553</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.2142072500915415</v>
+        <v>0.9209682220984429</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.2340641088228667</v>
+        <v>0.7062286480799671</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.8586970345653165</v>
+        <v>-0.2699541126468268</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.948806439694036</v>
+        <v>0.2096488281030004</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.07386426251938275</v>
+        <v>0.1695745170419564</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.2080325525742587</v>
+        <v>0.1968384508041506</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.1915013647061992</v>
+        <v>-0.2420666685948598</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.1160011118830264</v>
+        <v>-0.1808261636935495</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.186652308334244</v>
+        <v>-0.214403311020231</v>
       </c>
       <c r="AT3" t="n">
-        <v>26.80105601395772</v>
+        <v>50.9837636574498</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.752002392129739</v>
+        <v>23.42568516144784</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.4103810775295663</v>
+        <v>-0.1852825229960578</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.7826086956521739</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.01867352779114993</v>
+        <v>-0.1022863074407276</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1666666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="AZ3" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>Elizeu Zaleski dos Santos</t>
+          <t>Carlos Ulberg</t>
         </is>
       </c>
       <c r="BB3" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.2283726197881291</v>
+        <v>0.553800351809653</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.3822386615897231</v>
+        <v>1.342268417741766</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.1094899637313163</v>
+        <v>0.7242045139637285</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.4269809644437103</v>
+        <v>0.124204412843519</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.225</v>
+        <v>0.875</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.2048</v>
+        <v>0.4110222222222221</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.08670014725376296</v>
+        <v>-0.07834184379323354</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="BK3" t="n">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.1238297693092033</v>
+        <v>0.2817935970124311</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0.06118962174832737</v>
+        <v>0.3486381581963264</v>
       </c>
       <c r="BN3" t="n">
-        <v>-0.003134723833243423</v>
+        <v>0.9174401998052916</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0.258529087944871</v>
+        <v>1.151309996684171</v>
       </c>
       <c r="BP3" t="n">
-        <v>7.510185241753864e-05</v>
+        <v>9.721296465848745</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.436594920392122</v>
+        <v>0.5816711122246132</v>
       </c>
       <c r="BR3" t="n">
-        <v>1.755621995832607</v>
+        <v>0.7221413595213972</v>
       </c>
       <c r="BS3" t="n">
-        <v>7.152536909461622e-07</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.08696335668394707</v>
+        <v>0.7451262476296848</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0.01502734019572973</v>
+        <v>0.8302659297301014</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0.06080261464927235</v>
+        <v>0.2585699090962941</v>
       </c>
       <c r="BW3" t="n">
-        <v>2.782285918769324</v>
+        <v>0.6880460272548452</v>
       </c>
       <c r="BX3" t="n">
-        <v>1.077786640144659</v>
+        <v>-0.2099246464944156</v>
       </c>
       <c r="BY3" t="n">
-        <v>2.16253670373848</v>
+        <v>0.0529427518190219</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.994557942664501</v>
+        <v>0.03325077519379846</v>
       </c>
       <c r="CA3" t="n">
-        <v>-0.03415126218538844</v>
+        <v>0.4298685113045329</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0.1376167244974774</v>
+        <v>0.3076099619890255</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.9830508474576281</v>
+        <v>1.983050847457628</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.527272727272726</v>
+        <v>0.8181818181818177</v>
       </c>
       <c r="CE3" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI3" t="n">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
         <v>0</v>
@@ -1516,254 +1516,254 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.627057242598707</v>
+        <v>-0.2547135455113948</v>
       </c>
       <c r="B4" t="n">
-        <v>1.062935240840758</v>
+        <v>-0.03801416817924429</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4216409652814317</v>
+        <v>-0.2830520920310003</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4470815279522793</v>
+        <v>-0.1946862960980115</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1023271575626419</v>
+        <v>1.818806648739857</v>
       </c>
       <c r="F4" t="n">
-        <v>56.78123347357904</v>
+        <v>5.86914856728845</v>
       </c>
       <c r="G4" t="n">
-        <v>21.32370316485115</v>
+        <v>2.914387090577368</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1228341860870139</v>
+        <v>0.0924429098328494</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4772727272727273</v>
+        <v>3.738636363636364</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1201507338771556</v>
+        <v>-0.453098376430101</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Alexander Hernandez</t>
+          <t>Gunnar Nelson</t>
         </is>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7647846483204984</v>
+        <v>0.004544135030402392</v>
       </c>
       <c r="P4" t="n">
-        <v>0.400459921061586</v>
+        <v>-0.7500048457919901</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.2736946605145459</v>
+        <v>1.258406997188484</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.2453925986246835</v>
+        <v>0.5855377597567154</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.2318181818181819</v>
+        <v>0.5863636363636364</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2415200314218381</v>
+        <v>0.1262215239591517</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.1506867495806531</v>
+        <v>0.2425243949172105</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W4" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.1321855786607095</v>
+        <v>1.714897867155594</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.1089524390953497</v>
+        <v>2.595826465641773</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.7619264565264001</v>
+        <v>-0.5299962586376894</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3458565146557996</v>
+        <v>0.03785146240092417</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.761509946258322</v>
+        <v>2.146473922065164e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.235578954847875</v>
+        <v>-0.4005157496313486</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.165161554322056</v>
+        <v>-0.376447025428485</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.333333333949364</v>
+        <v>0.007812499768988349</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9753564690270485</v>
+        <v>-0.5980845054502341</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6738051325561182</v>
+        <v>-0.1993207665309052</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.2461258537239115</v>
+        <v>1.705549776112718</v>
       </c>
       <c r="AI4" t="n">
-        <v>-2.287456978222818e-10</v>
+        <v>3.945920155565998</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.06142953297514874</v>
+        <v>0.1727419675465966</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.2138393704021694</v>
+        <v>1.118152830045506</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.2337250534944974</v>
+        <v>2.223612656187862</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.8310453990293108</v>
+        <v>0.5917840196307261</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.4219963533416118</v>
+        <v>1.641689346200424</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.14429314987046</v>
+        <v>0.2086023203799404</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.403082616346875</v>
+        <v>0.2409237045974024</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.833915652403159</v>
+        <v>-0.2815762837504</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.625886933972064</v>
+        <v>-0.2603646545773703</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.7418562449846811</v>
+        <v>0.02723397131614834</v>
       </c>
       <c r="AT4" t="n">
-        <v>53.59727933715314</v>
+        <v>24.20743138385011</v>
       </c>
       <c r="AU4" t="n">
-        <v>27.98167405452007</v>
+        <v>13.02623827943092</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.2980289093298291</v>
+        <v>0.2109067017082786</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.478260869565217</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.1631315897455826</v>
+        <v>-0.1022863074407276</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.1666666666666667</v>
+        <v>1</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>Kurt Holobaugh</t>
+          <t>Kevin Holland</t>
         </is>
       </c>
       <c r="BB4" t="n">
-        <v>-0.2</v>
+        <v>2</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.5852704741298176</v>
+        <v>0.1550546503998492</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.4823400620097126</v>
+        <v>0.3460855149424915</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.1127319276641411</v>
+        <v>0.3348117578451697</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.7279142977770438</v>
+        <v>0.5254488572879634</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.03500000000000003</v>
+        <v>0.135</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0.1488</v>
+        <v>0.003022222222222242</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0.06137792990697341</v>
+        <v>-0.03611962157101133</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="BK4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.1690013746010395</v>
+        <v>-0.009958733636311052</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0.1331468344998062</v>
+        <v>0.04237689821347107</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.010354599222468</v>
+        <v>-0.182030102112959</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.415730709693642</v>
+        <v>-0.1700678187001846</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.03076195344507939</v>
+        <v>0.06158351961221344</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.7605754074354135</v>
+        <v>1.544542690881224</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.88622323385012</v>
+        <v>1.684583380964966</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>1.949949202106893e-09</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.990021319697944</v>
+        <v>-0.02311773873108063</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.324793755276213</v>
+        <v>0.1406203724412591</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.287704274434858</v>
+        <v>0.3936148785443476</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.3481253691069782</v>
+        <v>3.461562279734617</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.7656042643714713</v>
+        <v>0.06306152778602638</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.8430989613085226</v>
+        <v>0.2731472879399519</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.7304358764776631</v>
+        <v>0.1606282039583262</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.344917840276357</v>
+        <v>0.01105056156301242</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.710037910115789</v>
+        <v>0.2710764888017979</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.3559322033898308</v>
+        <v>1.050847457627119</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.563636363636363</v>
+        <v>0.4545454545454543</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
@@ -1778,14 +1778,14 @@
         <v>0</v>
       </c>
       <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
         <v>1</v>
       </c>
-      <c r="CJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>0</v>
-      </c>
       <c r="CL4" t="n">
         <v>0</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="CO4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
@@ -1813,260 +1813,260 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1044238586948877</v>
+        <v>0.73688191415024</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1471944954335764</v>
+        <v>0.7244559285325604</v>
       </c>
       <c r="C5" t="n">
-        <v>1.045105197072199</v>
+        <v>-0.1869915932106799</v>
       </c>
       <c r="D5" t="n">
-        <v>1.443698247030251</v>
+        <v>-0.1035273976862067</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1170234200331052</v>
+        <v>0.7134833784893206</v>
       </c>
       <c r="F5" t="n">
-        <v>22.34017595307918</v>
+        <v>26.46099636230803</v>
       </c>
       <c r="G5" t="n">
-        <v>8.890518084066471</v>
+        <v>12.44202458568294</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.1101817377347034</v>
+        <v>0.1997959664129326</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2784090909090909</v>
+        <v>0.9147727272727273</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4530928848948694</v>
+        <v>0.08793917632841589</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="L5" t="n">
         <v>2.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Da'Mon Blackshear</t>
+          <t>Molly McCann</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5052438666118554</v>
+        <v>0.8147937051846742</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3427877070792672</v>
+        <v>0.8265955588875324</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1855924215098627</v>
+        <v>0.338837393960509</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9518712902642059</v>
+        <v>0.1245377597567156</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.01363636363636365</v>
+        <v>-0.04090909090909096</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1723409269442264</v>
+        <v>-0.4963904163393558</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3522692842191886</v>
+        <v>0.2177923732714816</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="W5" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01000204468175489</v>
+        <v>0.2625304056768362</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.03534327932204918</v>
+        <v>0.2513682234177551</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.09591826930440638</v>
+        <v>-0.08049935335733351</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.0259787341007506</v>
+        <v>0.1119627135166585</v>
       </c>
       <c r="AB5" t="n">
-        <v>-7.285681744677307e-06</v>
+        <v>0.7051857863813947</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5132185855935191</v>
+        <v>-0.1629788624169478</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.6881829298063655</v>
+        <v>-0.1698382501574904</v>
       </c>
       <c r="AE5" t="n">
-        <v>13.34634143857934</v>
+        <v>5.086262878724786e-06</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.06825347408096219</v>
+        <v>-0.03641239783275862</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.06253178218054943</v>
+        <v>0.1034851475630577</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.549199594737155</v>
+        <v>0.38451357464619</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.2761655443454091</v>
+        <v>0.9840221120462836</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.03054532168409016</v>
+        <v>0.9656698881446149</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.2694865404377459</v>
+        <v>1.298537717490794</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0.03873572589168552</v>
+        <v>0.9938195176495197</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.2865865567115174</v>
+        <v>-0.004692711312954287</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.2145755475983578</v>
+        <v>0.2245019228919865</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.2204194964362909</v>
+        <v>-0.4877926964612805</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0.3198008140248791</v>
+        <v>-0.4611849059328836</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.1393176428422117</v>
+        <v>-0.3702316733392456</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.1351426458798909</v>
+        <v>-0.3592009119813503</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.706678596005568</v>
+        <v>-0.3055555555555556</v>
       </c>
       <c r="AT5" t="n">
-        <v>10.18754649180028</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>3.69480779574507</v>
+        <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.3177398160315374</v>
+        <v>0.766754270696452</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.8260869565217391</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.03887409640634221</v>
+        <v>0.3228720201077317</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>Cody Gibson</t>
+          <t>Alexia Thainara</t>
         </is>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.2093886913656988</v>
+        <v>0.09809097876987702</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.09528131371908657</v>
+        <v>1.185152322333827</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.05717645481527676</v>
+        <v>-0.2214636080384852</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.6276031866659325</v>
+        <v>0.9266933017324079</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.175</v>
+        <v>1.375</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.2048</v>
+        <v>-0.7177777777777777</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.5379145473003787</v>
+        <v>0.8843248228734331</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="BK5" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="BL5" t="n">
-        <v>1.546629430997569</v>
+        <v>-0.2168674432709992</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.921435729960175</v>
+        <v>-0.1942819217748923</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0.2021432794383989</v>
+        <v>-0.6747225899813551</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0648224701403646</v>
+        <v>-0.6207699186213946</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.009613073780341269</v>
+        <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0.02360711312835379</v>
+        <v>-0.3789578419019756</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0.1030282686070423</v>
+        <v>-0.3679966044142614</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0.2649262370957522</v>
+        <v>-0.718232044198895</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0.166578573426354</v>
+        <v>-0.7039489462855578</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.5437319559008519</v>
+        <v>-1.29787091058299</v>
       </c>
       <c r="BW5" t="n">
-        <v>9.738048329451768</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.350537055855281</v>
+        <v>-0.2982845317413179</v>
       </c>
       <c r="BY5" t="n">
-        <v>2.218089489476827</v>
+        <v>-0.06034366011647678</v>
       </c>
       <c r="BZ5" t="n">
-        <v>1.701582078673253</v>
+        <v>-0.06985000000000001</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.05414330981876327</v>
+        <v>-0.8712206737857726</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.2556189690202239</v>
+        <v>-0.843133508638886</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.03389830508474626</v>
+        <v>0.7627118644067798</v>
       </c>
       <c r="CD5" t="n">
-        <v>1.381818181818181</v>
+        <v>-0.1090909090909086</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
       </c>
       <c r="CF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG5" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="CO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
         <v>0</v>
@@ -2110,270 +2110,270 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.7211197214853079</v>
+        <v>0.5457271014189307</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6946922034484538</v>
+        <v>0.8064198299134032</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5138018563403633</v>
+        <v>1.067074702167644</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4494099353170559</v>
+        <v>1.19946156340772</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3873034752239378</v>
+        <v>0.5894783444845011</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1759041777869826</v>
+        <v>0.9810876559679823</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="J6" t="n">
-        <v>0.254409186017773</v>
+        <v>-0.2033887366954007</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Diyar Nurgozhay</t>
+          <t>Jordan Vucenic</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.136529702704061</v>
+        <v>-0.4665311964546394</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.003245576814645367</v>
+        <v>-0.5590363460702451</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5683316565302037</v>
+        <v>-0.3508398084604723</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.3374898208469057</v>
+        <v>-0.3364622402432843</v>
       </c>
       <c r="S6" t="n">
         <v>-1.022727272727273</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9102513747054203</v>
+        <v>0.3337588373919874</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.5423328414739725</v>
+        <v>-0.5406562905308746</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1819603404778242</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1312583288444216</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.4134108553499647</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.2502228408953655</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10.02940453506787</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.3414834560796132</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.2922266081174661</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.3046725617939408</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1899672468889126</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.1604827781504732</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.0009614211024111294</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.4004146790451985</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.2142857142857142</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.232522949479032</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.5334579958756915</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.5670146437004655</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.4320776138675755</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.6019852536237348</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.0485228005333385</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.05293257232236891</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.254811898512686</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>33.62992125984252</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>15.01574803149606</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>-0.1695137976346912</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.08695652173913</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>-0.1427775767310571</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>Chris Duncan</t>
+        </is>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.4512657428757036</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.5065445059974083</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.1679291480800733</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.2245155239546301</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>-0.2689777777777778</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.108102600651211</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>-0.1703657992734842</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>-0.1276226353063449</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.3050635188445939</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.3719048967373058</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.1544924050682741</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>-0.04039610710800365</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0.2571018401705312</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0.2727521903413036</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.2344601457240897</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>1.465494995817738</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>1.647416446244518</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>1.12515</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.009253604278866689</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>-0.09466853389514429</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>-0.220338983050847</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.3636363636363634</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
         <v>1</v>
       </c>
-      <c r="W6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X6" t="n">
-        <v>-0.2731149995806785</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>-0.2620012662786688</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>-1.035067399772236</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>-0.9204618855029829</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>-7.285681744677307e-06</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>-0.5245871986656995</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>-0.5136027873705329</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>-1.099824370147495</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>-1.059559694293116</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>-2.141323952079073</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>-0.0009613065458633021</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>-0.4006136420874905</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>-0.2142072500915415</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>-0.2340641088228667</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>-1.382754878798462</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>-1.249460412762545</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0.6215901745313511</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>0.4185102376601162</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>-0.3276007208152681</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>-0.3219540314356309</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>-0.2448375823991795</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>28.93650793650794</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>11.04761904761905</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0.04178712220762153</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0.8260869565217391</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>-0.02172760943923509</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA6" t="inlineStr">
-        <is>
-          <t>Brendson Ribeiro</t>
-        </is>
-      </c>
-      <c r="BB6" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>0.4220086896969176</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>-0.008156800048235931</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>-0.05393449088245192</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>0.3266698533325991</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>0.1538609175407375</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>-0.2065672146298779</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>-0.1795294994952108</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>-0.05026473061103939</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>-0.1982680991342746</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>0.9536024113053955</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>0.6773264268262469</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>520.125496031273</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>0.08640716687559197</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>-0.01937207851336209</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>-0.07287866570259148</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0.7066068951485985</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>-0.09763779527559062</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>0.1093991938079622</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>-0.009334870694888812</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>-0.1356918512029415</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>-0.2930114961362009</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>-0.4237288135593221</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>-0.2545454545454541</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>0</v>
-      </c>
       <c r="CJ6" t="n">
         <v>0</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
@@ -2407,254 +2407,254 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4527253375523086</v>
+        <v>0.5788827752867863</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09110421541972899</v>
+        <v>0.9645159459696497</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2914979683733613</v>
+        <v>-0.3561823304176266</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2887486387000867</v>
+        <v>-0.2833713473355108</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9664853192880525</v>
+        <v>0.6902596895678866</v>
       </c>
       <c r="F7" t="n">
-        <v>38.62994328259069</v>
+        <v>37.1099566874187</v>
       </c>
       <c r="G7" t="n">
-        <v>17.28311378553242</v>
+        <v>24.85294758794172</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1736197079455933</v>
+        <v>0.6471003688299458</v>
       </c>
       <c r="I7" t="n">
         <v>0.9147727272727273</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.5363284226492979</v>
+        <v>-0.161770463406284</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4166666666666667</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="L7" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>SeungWoo Choi</t>
+          <t>Nathaniel Wood</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.3333333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0616650760552662</v>
+        <v>0.4756194665154442</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.007681900967131529</v>
+        <v>0.9864761633057377</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.4267903545226818</v>
+        <v>0.4920989944985051</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.3374898208469057</v>
+        <v>0.1245377597567156</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4500000000000002</v>
+        <v>0.2863636363636364</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2184603299293008</v>
+        <v>0.2645797329143754</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.1877900635494939</v>
+        <v>0.1023762722580796</v>
       </c>
       <c r="V7" t="n">
         <v>-0.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1269199557978187</v>
+        <v>1.669305989138048</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.07584501155293273</v>
+        <v>1.974675309344517</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1074800115325198</v>
+        <v>0.2689507062177793</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.01887543132224714</v>
+        <v>1.138794033590802</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.01369647055197</v>
+        <v>15.16164271274625</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.167893769960416</v>
+        <v>2.077065974218927</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.213819180850952</v>
+        <v>2.07654480471444</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>2.034505149595134e-05</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.3715516339261981</v>
+        <v>0.5116356872360044</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.419509895550721</v>
+        <v>1.408033962453077</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.1348864489198403</v>
+        <v>1.386007882195287</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.0009613065458633021</v>
+        <v>-0.0009605849054817074</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.184137440207757</v>
+        <v>-0.07856229728673378</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.208076789348365</v>
+        <v>-0.05076646204177873</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.5453643378055929</v>
+        <v>-0.103964491349068</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.8848112953761701</v>
+        <v>0.409831288176695</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.129671538047388</v>
+        <v>1.016520433897458</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.4876535229476406</v>
+        <v>0.03592646862410857</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0.4610638161315007</v>
+        <v>0.2620344196249199</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0.3708907641053113</v>
+        <v>0.04325806273113569</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0.35936245849284</v>
+        <v>-0.01700666737703382</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.3048023090305728</v>
+        <v>1.227150537634408</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>23.12903225806452</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>11.58064516129032</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.02207621550591325</v>
+        <v>-0.04927726675427069</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.001527040824042582</v>
+        <v>0.03943313507542545</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>Kevin Vallejos</t>
+          <t>Morgan Charriere</t>
         </is>
       </c>
       <c r="BB7" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.139601184064781</v>
+        <v>0.3525287120504189</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.223090425117635</v>
+        <v>0.2290841672982815</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.4460647647573269</v>
+        <v>0.4460668310219008</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0.07457459111184536</v>
+        <v>0.5254488572879634</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.625</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.1776</v>
+        <v>0.4110222222222221</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0.3821260162996407</v>
+        <v>0.6605470450956553</v>
       </c>
       <c r="BJ7" t="n">
         <v>-0.2</v>
       </c>
       <c r="BK7" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.2169816792023251</v>
+        <v>0.9790915047726186</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0.1944546635123584</v>
+        <v>1.262187649236812</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0.6756425114186382</v>
+        <v>0.1217787741656518</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0.6208299587435445</v>
+        <v>0.3989027218641272</v>
       </c>
       <c r="BP7" t="n">
-        <v>0</v>
+        <v>2.032258064516129</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-0.3797309220279376</v>
+        <v>0.2880795701665372</v>
       </c>
       <c r="BR7" t="n">
-        <v>-0.3675898121179588</v>
+        <v>0.1839983022071309</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>4756.627016129031</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.718451468742231</v>
+        <v>0.06326857957583315</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0.7023800718901216</v>
+        <v>0.2489355267712552</v>
       </c>
       <c r="BV7" t="n">
-        <v>-1.293572101741222</v>
+        <v>0.4064354726080162</v>
       </c>
       <c r="BW7" t="n">
-        <v>0</v>
+        <v>0.7101977107180021</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0.2976377952755907</v>
+        <v>0.9210703069683602</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.05990908232340787</v>
+        <v>2.462914794231814</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0.06981493861012254</v>
+        <v>2.52340806451613</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0.871680274181827</v>
+        <v>0.08069759838123643</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0.8425662991714311</v>
+        <v>0.2776891328532848</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.3389830508474577</v>
+        <v>0.2542372881355933</v>
       </c>
       <c r="CD7" t="n">
-        <v>-1.199999999999999</v>
+        <v>-0.09090909090909086</v>
       </c>
       <c r="CE7" t="n">
         <v>1</v>
@@ -2699,274 +2699,274 @@
         <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3965656408107883</v>
+        <v>2.134773939104484</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3942779493433994</v>
+        <v>2.079079034481565</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1637957440379651</v>
+        <v>0.253355952784444</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2722750797582676</v>
+        <v>0.3349514763124359</v>
       </c>
       <c r="E8" t="n">
-        <v>1.522913236440615</v>
+        <v>-0.09357199585623971</v>
       </c>
       <c r="F8" t="n">
-        <v>17.7407452620014</v>
+        <v>46.30562294956893</v>
       </c>
       <c r="G8" t="n">
-        <v>8.690939054536576</v>
+        <v>20.78651102464332</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3857239462961308</v>
+        <v>0.3101310523424625</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3125</v>
+        <v>0.875</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.3282395782632265</v>
+        <v>-0.3282435565627508</v>
       </c>
       <c r="K8" t="n">
-        <v>1.25</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Waldo Cortes-Acosta</t>
+          <t>Jai Herbert</t>
         </is>
       </c>
       <c r="N8" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1788420076798679</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1637759629252379</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1975782079224767</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.3364622402432843</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.3954545454545455</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.03519638648860964</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.3345561101497995</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1995366277561614</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.2550178985037739</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.3680793191464795</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.3194861455850008</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7.567159843187913</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.6595020758738815</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.4399579388530734</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.6705840291991776</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.7516168694845672</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.1398330246681736</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.0009614211024111294</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.05786720722113491</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.2142857142857142</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.232522949479032</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.3769527683420908</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.211710632148778</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.5122073035387196</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.2945386589758323</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1884134915210638</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.09727445314841672</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.06481481481481473</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>42.99999999999999</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>26.33333333333333</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0.1911957950065703</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1.217391304347826</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>-0.1832688460213865</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>Chris Padilla</t>
+        </is>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.80444050698153</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.8742630271649255</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>1.002342196905556</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>1.027004412843519</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>-0.7177777777777777</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.9941026006512107</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>-0.1075024657212879</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>-0.03750915545071585</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0.04501207005181231</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0.5499653352693898</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>4.427807368749635</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>3.546477079796266</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.4972375690607733</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0.9711771467368618</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0.5962605340188165</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>3.669354838709677</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0.4017154682586824</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>1.717406614538001</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0.9884833333333334</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.2217225275911633</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.4170660416398762</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>1.101694915254237</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>-0.07272727272727242</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
         <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.2881733946373544</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.9372551435123991</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.2621402685139309</v>
-      </c>
-      <c r="R8" t="n">
-        <v>-0.1532953764024612</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.6136363636363638</v>
-      </c>
-      <c r="T8" t="n">
-        <v>-0.01213668499607231</v>
-      </c>
-      <c r="U8" t="n">
-        <v>-0.3155903672199455</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X8" t="n">
-        <v>5.72797544653065</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>3.471630719598181</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.5806660249091709</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.7986465105331531</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.4701357384153112</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.3927857068211438</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.4639592767766</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.3744101648793737</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.4265667930868252</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0.2514521023059778</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1.967854113472612</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0.3517335694209119</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0.9104151336405084</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1.149779616770757</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0.747570875019834</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0.8299769009814109</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.2130761227479884</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0.06672594717031993</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>-0.2293831336197823</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>-0.1557402640356876</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0.498956535644873</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>30.84715542521994</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.657757432706292</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>-0.3780551905387648</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>-0.2439338642063526</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BA8" t="inlineStr">
-        <is>
-          <t>Ryan Spann</t>
-        </is>
-      </c>
-      <c r="BB8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0.4144151183279455</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0.03855718681442573</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>-0.1650454365801803</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>1.630714297777044</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0.07499999999999996</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>-0.04000000000000001</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>0.1749627653297288</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>5</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0.2280367423215136</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0.3161281411281547</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0.2791248447061648</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>0.1022921205830685</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0.6157156140476362</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>-0.01325095896117819</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>0.0837330294911736</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>256.0307616584467</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>0.1857625389551725</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>-0.01401951170972919</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>-0.04425125764134662</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>3.000756967865409</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0.4542519598682958</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0.4142693769318878</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>0.3535515930224688</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>-0.03425048821974613</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>-0.2712958215316136</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>0.5084745762711865</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>0.6727272727272728</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
       </c>
       <c r="CJ8" t="n">
         <v>0</v>
@@ -3001,260 +3001,260 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.5096697759358988</v>
+        <v>1.530872618338192</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.394186239402286</v>
+        <v>1.106782196877085</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3161857577479159</v>
+        <v>-0.3161702821237463</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3120004227201142</v>
+        <v>-0.1731307304403253</v>
       </c>
       <c r="E9" t="n">
-        <v>1.152818794798012</v>
+        <v>-0.3863156245213358</v>
       </c>
       <c r="F9" t="n">
-        <v>24.66666666666667</v>
+        <v>45</v>
       </c>
       <c r="G9" t="n">
-        <v>12.33333333333333</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9832006740441237</v>
+        <v>-0.1431374087734442</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1988636363636364</v>
+        <v>0.2386363636363636</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5041157992810582</v>
+        <v>0.2960305427739995</v>
       </c>
       <c r="K9" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Lone'er Kavanagh</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>-0.8333333333333334</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
+        <v>0.2165280341986713</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.04051592049802414</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.1209474076534787</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.3364622402432843</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-1.022727272727273</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.9102513747054203</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.5406562905308746</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.2736378046714987</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.2625166576888432</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.1149262628326298</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.01600350793172907</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-7.229638012017342e-06</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2.035352914861483</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.142838326947469</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.5446589914205674</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.455921392533389</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.07720679454350526</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.0009614211024111294</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.4004146790451985</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.2142857142857142</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.232522949479032</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.1891946139037197</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.09847589324085465</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.7578820440231488</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.8260148392645762</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.4853832999227863</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.4096302818870842</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.07331154684095859</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>26.30588235294118</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>12.38823529411765</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.766754270696452</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1.217391304347826</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>-0.2844970192472102</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>0.5</v>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>SuYoung You</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>-1.166666666666667</v>
-      </c>
-      <c r="O9" t="n">
-        <v>-0.7499897321972167</v>
-      </c>
-      <c r="P9" t="n">
-        <v>-0.6287672823151799</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-0.1971468135104777</v>
-      </c>
-      <c r="R9" t="n">
-        <v>-0.06119815418023895</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.5590909090909091</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.1262215239591517</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.382916894464766</v>
-      </c>
-      <c r="V9" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.3632318786249981</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.1310006331393344</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>-0.004268319174318325</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.1338853651640703</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>-7.285681744677307e-06</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.4826080139491335</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.7027755788276716</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>-0.1032189949641568</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.03116970378644466</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0.422935346634953</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>-0.0009613065458633021</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.8012272841749811</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0.7854265836689858</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0.688470220533543</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.2019913239900921</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0.6511984692619127</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>-0.4876535229476406</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>-0.4610638161315007</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>-0.3708907641053113</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>-0.35936245849284</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>-0.3048023090305728</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>-0.1967148488830486</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>2.347826086956522</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>-0.1429310211303901</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>1.5</v>
-      </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>AJ Cunningham</t>
+          <t>Felipe dos Santos</t>
         </is>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.451843665916785</v>
+        <v>0.3677190244850779</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.493364206251607</v>
+        <v>0.2290841672982815</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0.7761556379176877</v>
+        <v>-0.3327186812152164</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0.07457459111184536</v>
+        <v>0.2245155239546301</v>
       </c>
       <c r="BG9" t="n">
         <v>-0.625</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0.2711999999999999</v>
+        <v>-0.5273777777777777</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0.3821260162996407</v>
+        <v>-0.3823418437932335</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="BK9" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.2169816792023251</v>
+        <v>-0.06246982790670088</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0.1944546635123584</v>
+        <v>-0.172149295940891</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0.6756425114186382</v>
+        <v>-0.004017292937164335</v>
       </c>
       <c r="BO9" t="n">
-        <v>-0.6208299587435445</v>
+        <v>-0.01800436839836861</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0.3797309220279376</v>
+        <v>0.5994669523638458</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0.3675898121179588</v>
+        <v>0.5583191850594228</v>
       </c>
       <c r="BS9" t="n">
         <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0.718451468742231</v>
+        <v>0.1081139638175712</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0.7023800718901216</v>
+        <v>0.1780758401408815</v>
       </c>
       <c r="BV9" t="n">
-        <v>-1.293572101741222</v>
+        <v>0.232081527254332</v>
       </c>
       <c r="BW9" t="n">
-        <v>0</v>
+        <v>1.381404174573055</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0.2976377952755907</v>
+        <v>1.131911546690056</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.05990908232340787</v>
+        <v>-0.06034366011647678</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0.06981493861012254</v>
+        <v>-0.06985000000000001</v>
       </c>
       <c r="CA9" t="n">
-        <v>-0.871680274181827</v>
+        <v>0.08447362535289206</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.8425662991714311</v>
+        <v>0.1194895091790929</v>
       </c>
       <c r="CC9" t="n">
-        <v>-0.1864406779661014</v>
+        <v>-0.7796610169491524</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.1090909090909093</v>
+        <v>-0.9818181818181809</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG9" t="n">
         <v>0</v>
@@ -3298,254 +3298,254 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.5801530911190351</v>
+        <v>-0.22622259296987</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.494354894084342</v>
+        <v>-0.2809496316550347</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3161857577479159</v>
+        <v>-0.509168334690667</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4494099353170559</v>
+        <v>-0.4441249047562247</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3873034752239378</v>
+        <v>1.64669367727424</v>
       </c>
       <c r="F10" t="n">
-        <v>3.333333333333333</v>
+        <v>7.006664988655038</v>
       </c>
       <c r="G10" t="n">
-        <v>1.666666666666667</v>
+        <v>2.345017359569846</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9832006740441237</v>
+        <v>0.2773287294985482</v>
       </c>
       <c r="I10" t="n">
-        <v>1.789772727272727</v>
+        <v>0.2784090909090909</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.6195639604037263</v>
+        <v>-0.2033887366954007</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Marcin Tybura</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Carlos Vera</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>-0.5</v>
-      </c>
       <c r="O10" t="n">
-        <v>-0.2167513988685507</v>
+        <v>0.1270237212165132</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.209925746290853</v>
+        <v>0.01831028099549553</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2621402685139309</v>
+        <v>0.338837393960509</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.3374898208469057</v>
+        <v>-0.2442622402432843</v>
       </c>
       <c r="S10" t="n">
-        <v>-1.022727272727273</v>
+        <v>-0.1227272727272727</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.395718774548311</v>
+        <v>0.3798782403770621</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.5423328414739725</v>
+        <v>0.0446682217513785</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.4</v>
+        <v>1.88</v>
       </c>
       <c r="W10" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="X10" t="n">
-        <v>0.4541385755115235</v>
+        <v>0.8638173361359729</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.3930018994180034</v>
+        <v>1.080541989628311</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.7960415260104001</v>
+        <v>-0.6440336282475159</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.6861624964658599</v>
+        <v>-0.4219857650886735</v>
       </c>
       <c r="AB10" t="n">
-        <v>-7.285681744677307e-06</v>
+        <v>-7.229637584437801e-06</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.3414607963720935</v>
+        <v>-0.4901092581090258</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.2924430844254048</v>
+        <v>-0.4717796832759481</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>511.9999847809478</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.8596784966093409</v>
+        <v>-0.6966740122967312</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.793528133785906</v>
+        <v>-0.600105215575976</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.2064718993409118</v>
+        <v>0.05775664211045851</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.0009613065458633021</v>
+        <v>0.9835337716637238</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.4006136420874905</v>
+        <v>0.2221320568401915</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.2142072500915415</v>
+        <v>0.0202407930032673</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.2340641088228667</v>
+        <v>-0.05898546829593934</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.6133491136764831</v>
+        <v>0.7197711902203207</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.2789111964096304</v>
+        <v>1.534866023039849</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.4876535229476406</v>
+        <v>-0.17629275401855</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0.4610638161315007</v>
+        <v>-0.03723039463379978</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0.3708907641053113</v>
+        <v>-0.1855670229211706</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.35936245849284</v>
+        <v>-0.09471157194652892</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.3048023090305728</v>
+        <v>-0.1722657099369428</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>54.34833659491193</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>26.62622309197651</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.7671484888304861</v>
+        <v>0.183311432325887</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>1.478260869565217</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.5671429620494324</v>
+        <v>0.05967876972059021</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0.4166666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="AZ10" t="n">
         <v>-0.5</v>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>Josias Musasa</t>
+          <t>Mick Parkin</t>
         </is>
       </c>
       <c r="BB10" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.6536126164505667</v>
+        <v>0.5082294145056757</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.04856732685642477</v>
+        <v>0.5767453145839343</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.05717645481527676</v>
+        <v>0.5016943676102663</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.9285365199992659</v>
+        <v>0.2245155239546301</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.375</v>
+        <v>0.195</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.3</v>
+        <v>-0.03777777777777779</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.03991093948018468</v>
+        <v>0.2467692673178775</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.4</v>
+        <v>2.2</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.2169816792023251</v>
+        <v>-0.1860483497931941</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0.1944546635123584</v>
+        <v>-0.164829503835321</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.6756425114186382</v>
+        <v>0.800912931043657</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.6208299587435445</v>
+        <v>0.841774925795262</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.3797309220279376</v>
+        <v>2.609141670210068</v>
       </c>
       <c r="BR10" t="n">
-        <v>-0.3675898121179588</v>
+        <v>2.938677615381804</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>256.4999999999999</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0.718451468742231</v>
+        <v>0.8044025905223209</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0.7023800718901216</v>
+        <v>0.9729361450685164</v>
       </c>
       <c r="BV10" t="n">
-        <v>-1.293572101741222</v>
+        <v>0.2460800730101757</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0.2976377952755907</v>
+        <v>-0.05718864133035896</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.05990908232340787</v>
+        <v>0.0509831672591461</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0.06981493861012254</v>
+        <v>-0.01219050880626224</v>
       </c>
       <c r="CA10" t="n">
-        <v>-0.871680274181827</v>
+        <v>0.4959208023788799</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.8425662991714311</v>
+        <v>0.4283398424810618</v>
       </c>
       <c r="CC10" t="n">
-        <v>1.186440677966102</v>
+        <v>1.52542372881356</v>
       </c>
       <c r="CD10" t="n">
-        <v>-0.6363636363636359</v>
+        <v>-0.07272727272727242</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH10" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
         <v>0</v>
@@ -3595,273 +3595,273 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9704798429099653</v>
+        <v>0.1198074644433643</v>
       </c>
       <c r="B11" t="n">
-        <v>0.807837616782385</v>
+        <v>0.123778086814125</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07904643943697912</v>
+        <v>0.9282866109494672</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3750471402645938</v>
+        <v>1.259437003813397</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1666798993530249</v>
+        <v>0.3891687320786109</v>
       </c>
       <c r="F11" t="n">
-        <v>56.33333333333333</v>
+        <v>15.53763440860215</v>
       </c>
       <c r="G11" t="n">
-        <v>22.66666666666666</v>
+        <v>9.390029325513195</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9832006740441237</v>
+        <v>0.02385623479557404</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.9147727272727273</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3376447237722015</v>
+        <v>-0.453098376430101</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.8333333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Stephanie Luciano</t>
+          <t>Christian Leroy Duncan</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>-1.166666666666667</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.2167513988685507</v>
+        <v>0.2730570739768762</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7864201223278732</v>
+        <v>0.5245988616531452</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2621402685139309</v>
+        <v>1.335037797457483</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.3374898208469057</v>
+        <v>-0.3364622402432843</v>
       </c>
       <c r="S11" t="n">
-        <v>1.704545454545455</v>
+        <v>-0.640909090909091</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5643558523173605</v>
+        <v>0.08010212097407703</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.336203319424857</v>
+        <v>-0.412874178694608</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.8</v>
+        <v>0.6</v>
       </c>
       <c r="W11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.6947420651356249</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.8614549558762921</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.3244413067101154</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.2521689448349462</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.9411692409502231</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.6027098327151692</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.6944816982389342</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.2372674679244874</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.2476816362663065</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.249933983502556</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.0009614211024111294</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.2148852969656051</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.02660242982823614</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.05895209942803505</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2839572092170936</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.1552893155048312</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.4877926964612805</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.4611849059328836</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.3702316733392456</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.3592009119813503</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.3055555555555556</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.766754270696452</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>-0.1630232113762218</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>Andrey Pulyaev</t>
+        </is>
+      </c>
+      <c r="BB11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.07150793200922347</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>1.118294409394278</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>1.391734953024115</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>-0.07641780937870324</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.3702222222222222</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.03988037842898869</v>
+      </c>
+      <c r="BJ11" t="n">
         <v>0.6</v>
-      </c>
-      <c r="X11" t="n">
-        <v>-0.2731149995806785</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>-0.2620012662786688</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.9966525272033696</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.9539332267940004</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>-7.285681744677307e-06</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0.8488608185363453</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.7027755788276716</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1.00145202331135</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0.9090738534602365</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>-0.04329361676759717</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>-0.0009613065458633021</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>-0.4006136420874905</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>-0.2142072500915415</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>-0.2340641088228667</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0.799142067069837</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0.5500995925584841</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1.552140016367788</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>1.53817068106365</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0.4772049689794379</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0.3448896994841419</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>0.1102277091948731</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>70.26515521199437</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>32.37871321312864</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0.6212877792378448</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>1.391304347826087</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0.01867352779114993</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>-1.083333333333333</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BA11" t="inlineStr">
-        <is>
-          <t>Sam Hughes</t>
-        </is>
-      </c>
-      <c r="BB11" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>0.6270351166591642</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>0.3822386615897231</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0.1682874005130054</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>-0.07457459111184536</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>-0.02500000000000002</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>0.09599999999999996</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>-0.02339460388678914</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>-0.8</v>
       </c>
       <c r="BK11" t="n">
         <v>1.75</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.1160297664038835</v>
+        <v>-0.2168674432709992</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.186489067958058</v>
+        <v>-0.1942819217748923</v>
       </c>
       <c r="BN11" t="n">
-        <v>1.352857578104962</v>
+        <v>-0.6747225899813551</v>
       </c>
       <c r="BO11" t="n">
-        <v>1.494511272262211</v>
+        <v>-0.6207699186213946</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.8748318937259937</v>
+        <v>-0.3789578419019756</v>
       </c>
       <c r="BR11" t="n">
-        <v>1.029644275553722</v>
+        <v>-0.3679966044142614</v>
       </c>
       <c r="BS11" t="n">
-        <v>31.99991035457982</v>
+        <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>1.337147227294171</v>
+        <v>-0.718232044198895</v>
       </c>
       <c r="BU11" t="n">
-        <v>1.435767026762949</v>
+        <v>-0.7039489462855578</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.1778641376268194</v>
+        <v>-1.29787091058299</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0.04951431947820712</v>
+        <v>-0.2982845317413179</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.04474558461244765</v>
+        <v>-0.06034366011647678</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0.04368840319783781</v>
+        <v>-0.06985000000000001</v>
       </c>
       <c r="CA11" t="n">
-        <v>1.222639183739524</v>
+        <v>-0.8712206737857726</v>
       </c>
       <c r="CB11" t="n">
-        <v>1.168321050314458</v>
+        <v>-0.843133508638886</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0.8813559322033899</v>
+        <v>-0.1186440677966101</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.5090909090909095</v>
+        <v>-0.4363636363636358</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
       </c>
       <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
         <v>1</v>
       </c>
-      <c r="CG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>0</v>
-      </c>
       <c r="CK11" t="n">
         <v>0</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="CO11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP11" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -3892,254 +3892,254 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8798584376745043</v>
+        <v>2.41549308251059</v>
       </c>
       <c r="B12" t="n">
-        <v>1.065414157393386</v>
+        <v>1.57878020210573</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4714555494991247</v>
+        <v>-0.005645897895066879</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4494099353170559</v>
+        <v>-0.09469688507757984</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.114554549009897</v>
+        <v>-0.09903218271464841</v>
       </c>
       <c r="F12" t="n">
-        <v>39.85714285714285</v>
+        <v>46.71428571428571</v>
       </c>
       <c r="G12" t="n">
-        <v>20.85714285714285</v>
+        <v>17.71428571428571</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2931150534951918</v>
+        <v>0.9810876559679823</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5170454545454546</v>
+        <v>0.9147727272727273</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.1201507338771556</v>
+        <v>-0.7444262894539178</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.8333333333333334</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Daniel Barez</t>
+          <t>Shauna Bannon</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>-1</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9724172736874124</v>
+        <v>0.3672721402738846</v>
       </c>
       <c r="P12" t="n">
-        <v>0.254061224029546</v>
+        <v>0.3736005130359515</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5683316565302037</v>
+        <v>-0.2742090081914748</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4913851791530947</v>
+        <v>-0.3364622402432843</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.1772727272727273</v>
+        <v>-1.022727272727273</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7257737627651218</v>
+        <v>-0.4272113118617439</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3811274173060649</v>
+        <v>-0.5406562905308746</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="W12" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="X12" t="n">
-        <v>0.4281652335439447</v>
+        <v>-0.2736378046714987</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4117162755807652</v>
+        <v>-0.2625166576888432</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.2006110011929696</v>
+        <v>0.1426426892806681</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.3514490835556847</v>
+        <v>-0.1011061585500892</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.89495069751153</v>
+        <v>-7.229638012017342e-06</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.515964141177338</v>
+        <v>1.473792673375399</v>
       </c>
       <c r="AD12" t="n">
-        <v>1.429443174218807</v>
+        <v>0.811669495778638</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.4336785651604299</v>
+        <v>0.6440819408373133</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.7418540154271335</v>
+        <v>0.4217272880933848</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.5704159370990249</v>
+        <v>-0.222344937401364</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.0009613065458633021</v>
+        <v>-0.0009614211024111294</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.4006136420874905</v>
+        <v>-0.05720209700645695</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.2142072500915415</v>
+        <v>-0.2142857142857142</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.2340641088228667</v>
+        <v>-0.232522949479032</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.2019913239900921</v>
+        <v>1.405591896871354</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.3103508278046396</v>
+        <v>1.655999158695353</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.1154034478721834</v>
+        <v>3.218089656479896</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.1755727654657745</v>
+        <v>3.82124862854984</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.183153616710723</v>
+        <v>-0.006595309702882094</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.4354929778369142</v>
+        <v>-0.2282376825648836</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.599834611354379</v>
+        <v>-0.3055555555555556</v>
       </c>
       <c r="AT12" t="n">
-        <v>16.95275590551181</v>
+        <v>61.66666666666666</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.866141732283464</v>
+        <v>30.33333333333333</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.5562417871222075</v>
+        <v>0.766754270696452</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.173913043478261</v>
+        <v>1.782608695652174</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.03887409640634221</v>
+        <v>-0.223760115311716</v>
       </c>
       <c r="AY12" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-1.25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>Andre Lima</t>
+          <t>Puja Tomar</t>
         </is>
       </c>
       <c r="BB12" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1.058878240262072</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.051436496454729</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.2235566846684386</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>-0.07641780937870324</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.6422222222222221</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>-0.3823418437932335</v>
+      </c>
+      <c r="BJ12" t="n">
         <v>-0.8</v>
       </c>
-      <c r="BC12" t="n">
-        <v>-0.1247284488690735</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>-0.05153407356356483</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>0.6682866561527843</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>1.028847631110377</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>0.6950000000000001</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>0.2727999999999999</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>0.09477574373156193</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>-0.6</v>
-      </c>
       <c r="BK12" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.2169816792023251</v>
+        <v>-0.2168674432709992</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0.1944546635123584</v>
+        <v>-0.1942819217748923</v>
       </c>
       <c r="BN12" t="n">
-        <v>-0.310008303975978</v>
+        <v>0.3236190352259417</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0.3071318459381391</v>
+        <v>-0.004593469205192492</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.003232571171776</v>
+        <v>3.24878948689169</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.965295469054965</v>
+        <v>1.980687606112054</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>-0.1938644029828369</v>
+        <v>1.022099447513812</v>
       </c>
       <c r="BU12" t="n">
-        <v>-0.09790333043615498</v>
+        <v>1.175460816617645</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.500001279204882</v>
+        <v>0.2557425215061322</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.1752607653321327</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.1543307086614173</v>
+        <v>-0.2982845317413179</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.84995625987864</v>
+        <v>-0.06034366011647678</v>
       </c>
       <c r="BZ12" t="n">
-        <v>1.542788447043107</v>
+        <v>-0.06985000000000001</v>
       </c>
       <c r="CA12" t="n">
-        <v>-0.1300120240295709</v>
+        <v>0.6669956837076928</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.03711643573933824</v>
+        <v>0.5520874220268864</v>
       </c>
       <c r="CC12" t="n">
-        <v>1</v>
+        <v>0.1694915254237289</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0.6909090909090899</v>
+        <v>0.2545454545454547</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="CO12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP12" t="n">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS12" t="n">
         <v>0</v>
@@ -4189,254 +4189,254 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9674849474662864</v>
+        <v>-0.5097859524231344</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6485951401083474</v>
+        <v>-0.6953920049050092</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3740228503396249</v>
+        <v>-0.5137767084510877</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3049537810484762</v>
+        <v>-0.4476491892099344</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3637460494487103</v>
+        <v>1.497390993907324</v>
       </c>
       <c r="F13" t="n">
-        <v>48.03125763125763</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>18.76849816849817</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>0.621727253756588</v>
+        <v>-0.5874597818410107</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7159090909090909</v>
+        <v>0.6761363636363636</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.3698573471404408</v>
+        <v>-0.827662836032151</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.75</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Josiane Nunes</t>
+          <t>Nathan Fletcher</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>-0.8333333333333334</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="O13" t="n">
-        <v>1.156455282535359</v>
+        <v>-0.956449541199083</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8352196880052201</v>
+        <v>-0.5679186018712565</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.1971468135104777</v>
+        <v>1.948084199609466</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.3374898208469057</v>
+        <v>1.876337759756715</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.022727272727273</v>
+        <v>0.7772727272727276</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.05825608798114697</v>
+        <v>-1.395718774548311</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.5423328414739725</v>
+        <v>3.428833183608631</v>
       </c>
       <c r="V13" t="n">
         <v>-0.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.2701846738202337</v>
+        <v>3.006668840403626</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.2593140738040158</v>
+        <v>2.49390824804401</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.6649384609099867</v>
+        <v>-0.2731037074399054</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.4943173556987119</v>
+        <v>0.484442173859002</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.05142559516290085</v>
+        <v>-7.229638012017342e-06</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.1884654227192938</v>
+        <v>-0.2500666725818787</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.3419531184182942</v>
+        <v>-0.1818369977278556</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.6477250684865803</v>
+        <v>-0.4152867270859399</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.4668572887782891</v>
+        <v>-0.02279606962666892</v>
       </c>
       <c r="AH13" t="n">
-        <v>-0.1346608312072909</v>
+        <v>1.255208943167982</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.0009613065458633021</v>
+        <v>-0.0009614211024111294</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.4006136420874905</v>
+        <v>2.002073395225993</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.2142072500915415</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.2340641088228667</v>
+        <v>1.848293217733897</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.2936335195996676</v>
+        <v>0.02853836898346657</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.08240164353817489</v>
+        <v>0.8090112025882183</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.3878980199146322</v>
+        <v>1.312899345061211</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0.3395441222117869</v>
+        <v>1.059153089354063</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0.3437141542448604</v>
+        <v>-0.04830653964940613</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0.3265354221795937</v>
+        <v>0.07066662927975817</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0.2998055300671123</v>
+        <v>0.5759803921568628</v>
       </c>
       <c r="AT13" t="n">
-        <v>7.232760063533814</v>
+        <v>60.00392156862744</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.051050687337249</v>
+        <v>23.61960784313726</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.1462549277266754</v>
+        <v>0.766754270696452</v>
       </c>
       <c r="AW13" t="n">
-        <v>2.608695652173913</v>
+        <v>1.478260869565217</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.2439338642063526</v>
+        <v>-0.02130376886006858</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>Priscila Cachoeira</t>
+          <t>Caolan Loughran</t>
         </is>
       </c>
       <c r="BB13" t="n">
-        <v>-1.2</v>
+        <v>-0.6</v>
       </c>
       <c r="BC13" t="n">
-        <v>1.602809037572079</v>
+        <v>1.066473396479402</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.192046000791743</v>
+        <v>0.8207766968132866</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.05717645481527676</v>
+        <v>0.001046538314976678</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.07457459111184536</v>
+        <v>-0.07641780937870324</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.03500000000000003</v>
+        <v>-0.105</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.164</v>
+        <v>0.6422222222222221</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0.3188204729326669</v>
+        <v>0.4621026006512108</v>
       </c>
       <c r="BJ13" t="n">
         <v>-0.4</v>
       </c>
       <c r="BK13" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.1630186140912382</v>
+        <v>0.9784274290076109</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0856180994983199</v>
+        <v>1.046989510415352</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.4420974781416804</v>
+        <v>1.060288628436361</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.429872863961502</v>
+        <v>0.9671530371976531</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.9920659027413861</v>
+        <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0.04667179909054658</v>
+        <v>0.9280981809722131</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.02941901934232311</v>
+        <v>1.020161290322581</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.4999988079060813</v>
+        <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0.4838287444828533</v>
+        <v>1.072581518795363</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0.4743760418088193</v>
+        <v>0.9723788153832198</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.1091770719768296</v>
+        <v>0.009743295554873825</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.2962492448087907</v>
+        <v>1.864852723160644</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.05643693828616021</v>
+        <v>1.410657547538797</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0.06361336618901799</v>
+        <v>0.7422029411764706</v>
       </c>
       <c r="CA13" t="n">
-        <v>-0.6538985609185191</v>
+        <v>0.8104355496138946</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0.6591494131923291</v>
+        <v>0.4636616552636287</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.1355932203389832</v>
+        <v>-0.5423728813559322</v>
       </c>
       <c r="CD13" t="n">
-        <v>1.218181818181818</v>
+        <v>-0.1999999999999995</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
@@ -4486,270 +4486,270 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.7211197214853079</v>
+        <v>1.360849248714259</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.6946922034484538</v>
+        <v>1.679040736768811</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5138018563403633</v>
+        <v>1.450896466250453</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4494099353170559</v>
+        <v>2.172278808114483</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3873034752239378</v>
+        <v>0.1352546562463984</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>29.64338055691255</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>10.02979970688813</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.487365595193827</v>
+        <v>0.9035548928823667</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.7860350359125834</v>
+        <v>-0.1201521901171677</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Yuneisy Duben</t>
+          <t>Guram Kutateladze</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>-1.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>4.020841727938016</v>
+        <v>0.4520656999411922</v>
       </c>
       <c r="P14" t="n">
-        <v>7.551814454869115</v>
+        <v>0.1870731412147122</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.486905820579021</v>
+        <v>0.03231419288451735</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.3374898208469057</v>
+        <v>-0.3364622402432843</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.022727272727273</v>
+        <v>-0.4772727272727273</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.395718774548311</v>
+        <v>0.4259976433621367</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.5423328414739725</v>
+        <v>-0.223262012744019</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.2731149995806785</v>
+        <v>0.03858157882409008</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.2620012662786688</v>
+        <v>-0.1082384265214381</v>
       </c>
       <c r="Z14" t="n">
-        <v>-1.035067399772236</v>
+        <v>0.0995791678827281</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.9204618855029829</v>
+        <v>-0.132228610218926</v>
       </c>
       <c r="AB14" t="n">
-        <v>-7.285681744677307e-06</v>
+        <v>0.02939016683889823</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.5245871986656995</v>
+        <v>0.08688478393517392</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.5136027873705329</v>
+        <v>0.1972194612015881</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>-1.099824370147495</v>
+        <v>0.2475717359269895</v>
       </c>
       <c r="AG14" t="n">
-        <v>-1.059559694293116</v>
+        <v>0.2791210010370512</v>
       </c>
       <c r="AH14" t="n">
-        <v>-2.141323952079073</v>
+        <v>-0.1041138465990244</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.0009613065458633021</v>
+        <v>-0.0009614211024111294</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.4006136420874905</v>
+        <v>0.9903759257478459</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.2142072500915415</v>
+        <v>0.6357387117035384</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.2340641088228667</v>
+        <v>0.2066136329518351</v>
       </c>
       <c r="AM14" t="n">
-        <v>-1.382754878798462</v>
+        <v>0.1116694826662929</v>
       </c>
       <c r="AN14" t="n">
-        <v>-1.249460412762545</v>
+        <v>0.1151182849567256</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.806464124111183</v>
+        <v>0.09203923631182888</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.721879062824057</v>
+        <v>0.1146044768547096</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.629109235894689</v>
+        <v>-0.05854336165093391</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.735509456710871</v>
+        <v>-0.1908196170173216</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.1118643576360939</v>
+        <v>-0.003968253968253905</v>
       </c>
       <c r="AT14" t="n">
-        <v>74.33333333333333</v>
+        <v>11.85714285714286</v>
       </c>
       <c r="AU14" t="n">
-        <v>33.66666666666666</v>
+        <v>7.285714285714286</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.7671484888304861</v>
+        <v>0.1616294349540079</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.695652173913043</v>
+        <v>1.434782608695652</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.06212874666962011</v>
+        <v>0.2216438468819082</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.25</v>
       </c>
       <c r="AZ14" t="n">
         <v>0.5</v>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>Carli Judice</t>
+          <t>Kaue Fernandes</t>
         </is>
       </c>
       <c r="BB14" t="n">
-        <v>-0.6</v>
+        <v>0.4</v>
       </c>
       <c r="BC14" t="n">
-        <v>2.768422242709296</v>
+        <v>-0.741173783245044</v>
       </c>
       <c r="BD14" t="n">
-        <v>2.684570871249482</v>
+        <v>-0.04837617140084526</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.6127311833039198</v>
+        <v>0.7798320505520935</v>
       </c>
       <c r="BF14" t="n">
-        <v>-0.07457459111184536</v>
+        <v>-0.07641780937870324</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.125</v>
+        <v>1.375</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.2319999999999999</v>
+        <v>0.1254222222222222</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.03991093948018468</v>
+        <v>-0.06145295490434464</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.2169816792023251</v>
+        <v>-0.2168674432709992</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0.1944546635123584</v>
+        <v>-0.1942819217748923</v>
       </c>
       <c r="BN14" t="n">
-        <v>1.577044561092553</v>
+        <v>-0.4558171173445392</v>
       </c>
       <c r="BO14" t="n">
-        <v>1.813302420047354</v>
+        <v>-0.435916983796534</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.7111781688811533</v>
+        <v>0.5538914712163956</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.9758739236674485</v>
+        <v>0.7823793354353624</v>
       </c>
       <c r="BS14" t="n">
         <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>1.538223016409648</v>
+        <v>-0.3591160220994475</v>
       </c>
       <c r="BU14" t="n">
-        <v>1.681356632267121</v>
+        <v>-0.2311781674186031</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.2761073352501161</v>
+        <v>0.6631480007623799</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>1.10236220472441</v>
+        <v>-0.1982845317413179</v>
       </c>
       <c r="BY14" t="n">
-        <v>2.310406783515773</v>
+        <v>0.1936206648341628</v>
       </c>
       <c r="BZ14" t="n">
-        <v>1.327274630231777</v>
+        <v>0.3837214285714285</v>
       </c>
       <c r="CA14" t="n">
-        <v>1.411464535080069</v>
+        <v>-0.06972899277601949</v>
       </c>
       <c r="CB14" t="n">
-        <v>1.315685290930564</v>
+        <v>0.2949038403373429</v>
       </c>
       <c r="CC14" t="n">
-        <v>-0.2881355932203389</v>
+        <v>0.4745762711864415</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0.7090909090909083</v>
+        <v>0.01818181818181843</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
       </c>
       <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
         <v>1</v>
       </c>
-      <c r="CG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="n">
-        <v>0</v>
-      </c>
       <c r="CJ14" t="n">
         <v>0</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
         <v>0</v>

--- a/data/validation_scaled.xlsx
+++ b/data/validation_scaled.xlsx
@@ -922,260 +922,260 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.395704602084226</v>
+        <v>0.4281137408932383</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2990101515329559</v>
+        <v>0.3797023326966128</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3444676892836117</v>
+        <v>-0.115895758375568</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.264216114654275</v>
+        <v>-0.08550669010795267</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7703324988710014</v>
+        <v>-0.338299749267865</v>
       </c>
       <c r="F2" t="n">
-        <v>9.62433622977095</v>
+        <v>64.40502166378798</v>
       </c>
       <c r="G2" t="n">
-        <v>5.840839504643835</v>
+        <v>24.27014381982306</v>
       </c>
       <c r="H2" t="n">
-        <v>1.404535823589422</v>
+        <v>1.278985957499689</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.3977272727272727</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.2866252832736341</v>
+        <v>0.00616843547239421</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8333333333333334</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Leon Edwards</t>
+          <t>Brandon Moreno</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.3333333333333333</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.2922333238051739</v>
+        <v>0.2537515392386069</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3769501021495114</v>
+        <v>0.2035392267137581</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6453605950365011</v>
+        <v>-0.1213141365132869</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03233775975671565</v>
+        <v>0.03264139634709939</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.04090909090909096</v>
+        <v>0.2318181818181819</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1031618224666144</v>
+        <v>0.08010212097407703</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.02540583957818698</v>
+        <v>0.1149517035448221</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="W2" t="n">
         <v>3.8</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.2650918824027695</v>
+        <v>-0.2672443676807418</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.2502063391159437</v>
+        <v>-0.2564442242626364</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.6734447785033378</v>
+        <v>1.562415454728816</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.4051322168245075</v>
+        <v>1.439066876758125</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0009110044715115404</v>
+        <v>0.0001065793604616097</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.3520804362636419</v>
+        <v>0.1275187876038767</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.3163017288966489</v>
+        <v>-0.02920739467103866</v>
       </c>
       <c r="AE2" t="n">
-        <v>351.9999895108243</v>
+        <v>0.7618934994818478</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.73110412946674</v>
+        <v>1.268455294621101</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.5559622095816975</v>
+        <v>0.9477164630274059</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.8045215076210384</v>
+        <v>-0.2176270962986034</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.3682392982255623</v>
+        <v>-0.0009612310117851299</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.14693737061205</v>
+        <v>-0.375216646476945</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.4068119507656687</v>
+        <v>-0.1845760975778121</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.9054271738697669</v>
+        <v>-0.2067493481881287</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.7519001923120632</v>
+        <v>0.8906864653922844</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.3906305544708329</v>
+        <v>0.2862188271982875</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.01437492315770051</v>
+        <v>0.1428857255437746</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.01632716665418358</v>
+        <v>0.1576446317784692</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.2295566629558789</v>
+        <v>-0.2851960756584635</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.3084063786582985</v>
+        <v>-0.2655502857330576</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.33494574347485</v>
+        <v>-0.1974626622715989</v>
       </c>
       <c r="AT2" t="n">
-        <v>34.2641492204844</v>
+        <v>38.6585276523013</v>
       </c>
       <c r="AU2" t="n">
-        <v>20.90981470463451</v>
+        <v>19.4274203393969</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.6445466491458607</v>
+        <v>0.5178546023616446</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.217391304347826</v>
+        <v>1.391304347826087</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.1001700390109197</v>
+        <v>-0.04214701372860906</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>Sean Brady</t>
+          <t>Steve Erceg</t>
         </is>
       </c>
       <c r="BB2" t="n">
-        <v>0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.13986433796519</v>
+        <v>0.5328496209927913</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.3026278715317849</v>
+        <v>0.3942112878503958</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.668576977375363</v>
+        <v>0.2781531936379704</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.8263821906212969</v>
+        <v>0.4239252046628858</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.415</v>
+        <v>-0.105</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.4382222222222221</v>
+        <v>0.09584866001050969</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.091213711762322</v>
+        <v>0.107291617737516</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="BK2" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.1777623193766601</v>
+        <v>-0.1923812990585076</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.1530431272583465</v>
+        <v>-0.1610517479278818</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.3566463193901674</v>
+        <v>0.5151996865332436</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.9317998282171414</v>
+        <v>0.8552176762614833</v>
       </c>
       <c r="BP2" t="n">
-        <v>7.510186136983178e-06</v>
+        <v>0.9844951776339887</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.7868657342205764</v>
+        <v>-0.02656859637983527</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.9751981604112867</v>
+        <v>0.06724864255733373</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.2499990761278958</v>
+        <v>528.062698388115</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.2923359547615102</v>
+        <v>0.3599997297749781</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.6870218723403961</v>
+        <v>0.5057661760220226</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.6638579126779545</v>
+        <v>0.3073035906189949</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.03372786139505</v>
+        <v>0.013124124257001</v>
       </c>
       <c r="BX2" t="n">
-        <v>2.03985112057855</v>
+        <v>0.9940483457453305</v>
       </c>
       <c r="BY2" t="n">
-        <v>2.403330575179982</v>
+        <v>0.8377069466505715</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.213481854979021</v>
+        <v>0.7268458427073572</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.7924184880870809</v>
+        <v>0.1892973464284483</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.578698108162773</v>
+        <v>0.2451280216840596</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.5423728813559329</v>
+        <v>0.1525423728813563</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.4363636363636358</v>
+        <v>-0.03636363636363621</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG2" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="CN2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO2" t="n">
         <v>0</v>
@@ -1219,296 +1219,296 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.09665794284418565</v>
+        <v>-0.02815441920420995</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2089822876695997</v>
+        <v>0.2481214869484519</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.04400909167002825</v>
+        <v>-0.005520642332265042</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02674450545419586</v>
+        <v>0.258941621402858</v>
       </c>
       <c r="E3" t="n">
-        <v>1.299084950547833</v>
+        <v>-0.04926718482955957</v>
       </c>
       <c r="F3" t="n">
-        <v>16.76933990217769</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="G3" t="n">
-        <v>10.20700007975618</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6411363101310523</v>
+        <v>-1.229277991798186</v>
       </c>
       <c r="I3" t="n">
-        <v>2.982954545454545</v>
+        <v>0.6761363636363636</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.2866252832736341</v>
+        <v>-0.3270343571755325</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Jan Blachowicz</t>
+          <t>Manuel Torres</t>
         </is>
       </c>
       <c r="N3" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.725566153766291</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.615975966576394</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.7984940169639315</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.6789963324523616</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.7772727272727276</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.6335349567949725</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.3913138575555759</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.03948280864785399</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0748156518420498</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.4847949389139747</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.2360478880765396</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>12.89494967295571</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.1721470263675945</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.08731290856331025</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.4923980066645547</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.2393845204796047</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.032342598022308</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>4.499934367497782</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.3726820672726336</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.35114595938804</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.7657794574624597</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.5582293034838308</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.330729750414521</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1.43920978807992</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.8903562814848462</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.4700856863712808</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.154683275914195</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>50.70597795405104</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>20.28009687777409</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-0.05227865509555651</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1.608695652173913</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>-0.08275901655138954</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>-0.4166666666666667</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>Drew Dober</t>
+        </is>
+      </c>
+      <c r="BB3" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.5442137124357657</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.4008883784813501</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>-0.1672742573424217</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.02186459860227976</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>-0.285</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.04153441933788761</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>-0.09959727115137282</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>-0.02916235573198944</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>-0.04415148556217845</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.7881673323508788</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.4938735579055979</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.299705171579281</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.6000253849531667</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.6651437862710328</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.4999983310696123</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.8253221149709363</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6880910603331118</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>-0.02197139881461407</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>9.777040921935326e-12</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.5335969089266578</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.05035219890470994</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.1282365123844207</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.5187197920077752</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.2155219067838259</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>-0.0677966101694913</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.181818181818181</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
         <v>1</v>
       </c>
-      <c r="O3" t="n">
-        <v>-0.0378526448032513</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-0.05274776541259549</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.415468194229507</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-0.05986224024328436</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.340909090909091</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.1723409269442264</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-0.09135789730013097</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
         <v>1</v>
       </c>
-      <c r="W3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.3602485766487475</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.6474757280377293</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>-0.3908593020603319</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.2235636397209021</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.004598253043535379</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.1422240114499927</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.1984585628942628</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>-0.3550592860756448</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.02029728382547645</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1.285744396285219</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>4.429267062101677</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.6562460654543553</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.9209682220984429</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.7062286480799671</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>-0.2699541126468268</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.2096488281030004</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.1695745170419564</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.1968384508041506</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>-0.2420666685948598</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>-0.1808261636935495</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>-0.214403311020231</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>50.9837636574498</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>23.42568516144784</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>-0.1852825229960578</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>-0.1022863074407276</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="inlineStr">
-        <is>
-          <t>Carlos Ulberg</t>
-        </is>
-      </c>
-      <c r="BB3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0.553800351809653</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>1.342268417741766</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0.7242045139637285</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0.124204412843519</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0.4110222222222221</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>-0.07834184379323354</v>
-      </c>
-      <c r="BJ3" t="n">
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
         <v>1</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0.2817935970124311</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0.3486381581963264</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0.9174401998052916</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>1.151309996684171</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>9.721296465848745</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0.5816711122246132</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>0.7221413595213972</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0.7451262476296848</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>0.8302659297301014</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0.2585699090962941</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0.6880460272548452</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>-0.2099246464944156</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0.0529427518190219</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0.03325077519379846</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0.4298685113045329</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0.3076099619890255</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>1.983050847457628</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0.8181818181818177</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
@@ -1516,254 +1516,254 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.2547135455113948</v>
+        <v>0.5649734846320408</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.03801416817924429</v>
+        <v>0.5028908015092832</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2830520920310003</v>
+        <v>-0.4434777851479039</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1946862960980115</v>
+        <v>-0.3767402910234142</v>
       </c>
       <c r="E4" t="n">
-        <v>1.818806648739857</v>
+        <v>-0.1913005682778006</v>
       </c>
       <c r="F4" t="n">
-        <v>5.86914856728845</v>
+        <v>69.37686881989728</v>
       </c>
       <c r="G4" t="n">
-        <v>2.914387090577368</v>
+        <v>30.99339762735342</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0924429098328494</v>
+        <v>0.7331924940971791</v>
       </c>
       <c r="I4" t="n">
-        <v>3.738636363636364</v>
+        <v>1.153409090909091</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.453098376430101</v>
+        <v>-0.1187826117705785</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1666666666666667</v>
+        <v>-0.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Gunnar Nelson</t>
+          <t>Kelvin Gastelum</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004544135030402392</v>
+        <v>0.2301608085122228</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.7500048457919901</v>
+        <v>0.09249860251072067</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.258406997188484</v>
+        <v>-0.1979648159697218</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5855377597567154</v>
+        <v>-0.2443678619837273</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5863636363636364</v>
+        <v>-0.0954545454545454</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1262215239591517</v>
+        <v>-0.03519638648860964</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2425243949172105</v>
+        <v>-0.08716390162722179</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="W4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="X4" t="n">
-        <v>1.714897867155594</v>
+        <v>-0.2180034857936415</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.595826465641773</v>
+        <v>-0.2373043969462026</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.5299962586376894</v>
+        <v>1.478984332601722</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.03785146240092417</v>
+        <v>1.564252438619051</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.146473922065164e-05</v>
+        <v>-8.301150643294252e-06</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.4005157496313486</v>
+        <v>1.568763441837058</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.376447025428485</v>
+        <v>1.489907695683031</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.007812499768988349</v>
+        <v>24.38208005670462</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.5980845054502341</v>
+        <v>1.414156491307799</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.1993207665309052</v>
+        <v>1.431711817459498</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.705549776112718</v>
+        <v>0.1567632336297398</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.945920155565998</v>
+        <v>-0.0009614950949974071</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1727419675465966</v>
+        <v>0.2291895573102678</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.118152830045506</v>
+        <v>1.285769902435905</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.223612656187862</v>
+        <v>1.15325643545493</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.5917840196307261</v>
+        <v>1.071088184109367</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.641689346200424</v>
+        <v>0.7238812421507314</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.2086023203799404</v>
+        <v>0.3002055324667161</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.2409237045974024</v>
+        <v>0.161215368608173</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.2815762837504</v>
+        <v>-0.3630969119258999</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.2603646545773703</v>
+        <v>-0.3486351580750074</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.02723397131614834</v>
+        <v>-0.1195640356599261</v>
       </c>
       <c r="AT4" t="n">
-        <v>24.20743138385011</v>
+        <v>36.47358121330724</v>
       </c>
       <c r="AU4" t="n">
-        <v>13.02623827943092</v>
+        <v>12.42465753424657</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.2109067017082786</v>
+        <v>-0.1351353914734197</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.391304347826087</v>
+        <v>1.695652173913043</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.1022863074407276</v>
+        <v>-0.08275901655138954</v>
       </c>
       <c r="AY4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>1</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>6</v>
-      </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>Kevin Holland</t>
+          <t>Joe Pyfer</t>
         </is>
       </c>
       <c r="BB4" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.1550546503998492</v>
+        <v>0.2525353653994273</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.3460855149424915</v>
+        <v>0.1772058423443766</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.3348117578451697</v>
+        <v>-0.1115958259698729</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.5254488572879634</v>
+        <v>0.8259858107234919</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.135</v>
+        <v>0.195</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.003022222222222242</v>
+        <v>-0.03993694167104573</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0.03611962157101133</v>
+        <v>0.2297360621819604</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="BK4" t="n">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.009958733636311052</v>
+        <v>-0.1988391418211121</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.04237689821347107</v>
+        <v>-0.1785969833249644</v>
       </c>
       <c r="BN4" t="n">
-        <v>-0.182030102112959</v>
+        <v>0.3618729592622923</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0.1700678187001846</v>
+        <v>0.2097534375192742</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.06158351961221344</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.544542690881224</v>
+        <v>0.2482716614217891</v>
       </c>
       <c r="BR4" t="n">
-        <v>1.684583380964966</v>
+        <v>-0.02643985099512502</v>
       </c>
       <c r="BS4" t="n">
-        <v>1.949949202106893e-09</v>
+        <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.02311773873108063</v>
+        <v>0.2912510403356557</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.1406203724412591</v>
+        <v>0.06043801385932775</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.3936148785443476</v>
+        <v>-0.3470754826712737</v>
       </c>
       <c r="BW4" t="n">
-        <v>3.461562279734617</v>
+        <v>0.2524454836534525</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.06306152778602638</v>
+        <v>0.517140346153396</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.2731472879399519</v>
+        <v>-0.005147025100604772</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.1606282039583262</v>
+        <v>-0.004026105217596479</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.01105056156301242</v>
+        <v>0.05206889173598465</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.2710764888017979</v>
+        <v>-0.228636224321777</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.050847457627119</v>
+        <v>0.5084745762711865</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.4545454545454543</v>
+        <v>-0.2545454545454541</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
@@ -1781,22 +1781,22 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
         <v>1</v>
       </c>
-      <c r="CL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0</v>
-      </c>
       <c r="CO4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
         <v>0</v>
@@ -1813,287 +1813,287 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.73688191415024</v>
+        <v>0.2909987760469096</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7244559285325604</v>
+        <v>-0.3100785085159086</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1869915932106799</v>
+        <v>-0.4951693318056659</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1035273976862067</v>
+        <v>-0.4348285204760251</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7134833784893206</v>
+        <v>0.6350229330809504</v>
       </c>
       <c r="F5" t="n">
-        <v>26.46099636230803</v>
+        <v>30.05675146771037</v>
       </c>
       <c r="G5" t="n">
-        <v>12.44202458568294</v>
+        <v>10.49510763209393</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1997959664129326</v>
+        <v>-0.03330433702000734</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.6761363636363636</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08793917632841589</v>
+        <v>-0.3686847062565234</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Molly McCann</t>
+          <t>Raul Rosas Jr.</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>-1.666666666666667</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8147937051846742</v>
+        <v>-0.7370591512695293</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8265955588875324</v>
+        <v>-0.8802172655078875</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.338837393960509</v>
+        <v>-0.1213141365132869</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1245377597567156</v>
+        <v>0.8636691713395792</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.04090909090909096</v>
+        <v>0.04090909090909096</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.4963904163393558</v>
+        <v>-1.395718774548311</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2177923732714816</v>
+        <v>1.117280112867407</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="W5" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2625304056768362</v>
+        <v>0.2991825389969845</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2513682234177551</v>
+        <v>0.3899637743273965</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.08049935335733351</v>
+        <v>-0.05561740756365406</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1119627135166585</v>
+        <v>-0.1585948675528543</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.7051857863813947</v>
+        <v>0.9420890766624016</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.1629788624169478</v>
+        <v>0.9996325767887735</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.1698382501574904</v>
+        <v>0.938762067967152</v>
       </c>
       <c r="AE5" t="n">
-        <v>5.086262878724786e-06</v>
+        <v>48.85658372938218</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.03641239783275862</v>
+        <v>0.06056486130155799</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.1034851475630577</v>
+        <v>-0.08775870874725222</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.38451357464619</v>
+        <v>-0.2488178833406216</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.9840221120462836</v>
+        <v>1.047192335919759</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.9656698881446149</v>
+        <v>1.256280224662965</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.298537717490794</v>
+        <v>0.74853228962818</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.9938195176495197</v>
+        <v>0.4382114544012689</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.004692711312954287</v>
+        <v>0.0722390762289956</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.2245019228919865</v>
+        <v>0.03579745722872855</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.4877926964612805</v>
+        <v>0.4077118648668359</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0.4611849059328836</v>
+        <v>0.2474171886486827</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.3702316733392456</v>
+        <v>1.324912264164431</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.3592009119813503</v>
+        <v>0.2399740745947636</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.3055555555555556</v>
+        <v>0.6718087944473103</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>43.37949606057978</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>11.86163776288258</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.766754270696452</v>
+        <v>0.4803717930478494</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.3228720201077317</v>
+        <v>-0.04214701372860906</v>
       </c>
       <c r="AY5" t="n">
-        <v>-1.25</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>Alexia Thainara</t>
+          <t>Vince Morales</t>
         </is>
       </c>
       <c r="BB5" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.09809097876987702</v>
+        <v>0.5593658343597313</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.185152322333827</v>
+        <v>0.2172683861301031</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.2214636080384852</v>
+        <v>-0.3343095514600689</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.9266933017324079</v>
+        <v>0.2228949016325828</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.375</v>
+        <v>0.07499999999999996</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0.7177777777777777</v>
+        <v>0.09584866001050969</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.8843248228734331</v>
+        <v>-0.1544861600402617</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="BK5" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.2168674432709992</v>
+        <v>-0.2119204640043059</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0.1942819217748923</v>
+        <v>-0.1882639050186437</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0.6747225899813551</v>
+        <v>0.8154942498649839</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0.6207699186213946</v>
+        <v>0.2788818809188809</v>
       </c>
       <c r="BP5" t="n">
-        <v>0</v>
+        <v>0.06176376710914179</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0.3789578419019756</v>
+        <v>0.09899373504024749</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0.3679966044142614</v>
+        <v>-0.08643805015894861</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>63.99979019159423</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0.718232044198895</v>
+        <v>0.6516717464390666</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0.7039489462855578</v>
+        <v>0.1163686435923746</v>
       </c>
       <c r="BV5" t="n">
-        <v>-1.29787091058299</v>
+        <v>-0.431692887626295</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>-0.2982845317413179</v>
+        <v>1.276642025328609</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.06034366011647678</v>
+        <v>1.272912258575483</v>
       </c>
       <c r="BZ5" t="n">
-        <v>-0.06985000000000001</v>
+        <v>0.7155692111119241</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0.8712206737857726</v>
+        <v>0.4630161318923437</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.843133508638886</v>
+        <v>-0.0562501889173189</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.7627118644067798</v>
+        <v>-1.677966101694915</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.1090909090909086</v>
+        <v>0.8181818181818177</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
       </c>
       <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
         <v>1</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0</v>
       </c>
       <c r="CP5" t="n">
         <v>0</v>
@@ -2110,254 +2110,254 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5457271014189307</v>
+        <v>-0.7213733258363317</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8064198299134032</v>
+        <v>-0.6955302948576146</v>
       </c>
       <c r="C6" t="n">
-        <v>1.067074702167644</v>
+        <v>-0.5137342110274061</v>
       </c>
       <c r="D6" t="n">
-        <v>1.19946156340772</v>
+        <v>-0.4477358719528415</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5894783444845011</v>
+        <v>-0.3871077499153316</v>
       </c>
       <c r="F6" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9810876559679823</v>
+        <v>0.9807381632906674</v>
       </c>
       <c r="I6" t="n">
-        <v>0.875</v>
+        <v>-0.4375</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.2033887366954007</v>
+        <v>0.2560705299583396</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Jordan Vucenic</t>
+          <t>David Martinez</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1666666666666667</v>
+        <v>-1</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.4665311964546394</v>
+        <v>0.03671681655587231</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.5590363460702451</v>
+        <v>0.7720672226333096</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.3508398084604723</v>
+        <v>0.3385899402253221</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.3364622402432843</v>
+        <v>-0.3367042814273361</v>
       </c>
       <c r="S6" t="n">
         <v>-1.022727272727273</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3337588373919874</v>
+        <v>0.9102513747054203</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.5406562905308746</v>
+        <v>-0.5408928111971163</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1819603404778242</v>
+        <v>-0.2734503516580105</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1312583288444216</v>
+        <v>-0.2618547814471743</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4134108553499647</v>
+        <v>-1.035679531393491</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2502228408953655</v>
+        <v>-0.9239318359322959</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.02940453506787</v>
+        <v>-8.310237563699913e-06</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.3414834560796132</v>
+        <v>-0.5244853326713629</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.2922266081174661</v>
+        <v>-0.5129008249651499</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.3046725617939408</v>
+        <v>-1.099255204353444</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.1899672468889126</v>
+        <v>-1.060131447838246</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.1604827781504732</v>
+        <v>-2.142945281513419</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.0009614211024111294</v>
+        <v>-0.0009614950949978477</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.4004146790451985</v>
+        <v>-0.4013499186012975</v>
       </c>
       <c r="AK6" t="n">
         <v>-0.2142857142857142</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.232522949479032</v>
+        <v>-0.2322282117698194</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.5334579958756915</v>
+        <v>-1.386999192544182</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.5670146437004655</v>
+        <v>-1.249701554343179</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.4320776138675755</v>
+        <v>0.5443634696141778</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.6019852536237348</v>
+        <v>0.437213397193683</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.0485228005333385</v>
+        <v>0.3317972350230415</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0.05293257232236891</v>
+        <v>0.5424939258371086</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.254811898512686</v>
+        <v>-0.251984126984127</v>
       </c>
       <c r="AT6" t="n">
-        <v>33.62992125984252</v>
+        <v>27.14285714285714</v>
       </c>
       <c r="AU6" t="n">
-        <v>15.01574803149606</v>
+        <v>10.85714285714286</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.1695137976346912</v>
+        <v>0.4626167781097358</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.08695652173913</v>
+        <v>4.956521739130435</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.1427775767310571</v>
+        <v>-0.1436770207855602</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>Chris Duncan</t>
+          <t>Saimon Oliveira</t>
         </is>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.4512657428757036</v>
+        <v>0.4154206760820578</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.5065445059974083</v>
+        <v>-0.1232632360485732</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.1679291480800733</v>
+        <v>-0.1115958259698729</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.2245155239546301</v>
+        <v>1.529591871329552</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.115</v>
+        <v>-0.125</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0.2689777777777778</v>
+        <v>-0.2436153441933789</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.108102600651211</v>
+        <v>0.1284027288486271</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="BK6" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.1703657992734842</v>
+        <v>-0.2161764705882353</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0.1276226353063449</v>
+        <v>-0.1942468823925354</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.3050635188445939</v>
+        <v>0.1007883629346907</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.3719048967373058</v>
+        <v>0.1186074301687898</v>
       </c>
       <c r="BP6" t="n">
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.1544924050682741</v>
+        <v>0.04711809256814786</v>
       </c>
       <c r="BR6" t="n">
-        <v>-0.04039610710800365</v>
+        <v>0.157873521221592</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.2571018401705312</v>
+        <v>0.1025402475527869</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.2727521903413036</v>
+        <v>0.1010616918444162</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.2344601457240897</v>
+        <v>0.2249027478426463</v>
       </c>
       <c r="BW6" t="n">
-        <v>0</v>
+        <v>15.35710025558502</v>
       </c>
       <c r="BX6" t="n">
-        <v>1.465494995817738</v>
+        <v>-0.2992980100109878</v>
       </c>
       <c r="BY6" t="n">
-        <v>1.647416446244518</v>
+        <v>-0.06080938877893232</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.12515</v>
+        <v>-0.07005469144762817</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.009253604278866689</v>
+        <v>0.03327592120080036</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0.09466853389514429</v>
+        <v>0.07438868877319567</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0.220338983050847</v>
+        <v>-0.6271186440677966</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.3636363636363634</v>
+        <v>0.7272727272727268</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="CI6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
@@ -2407,260 +2407,260 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5788827752867863</v>
+        <v>-0.5244589697495261</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9645159459696497</v>
+        <v>-0.4553280231251612</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3561823304176266</v>
+        <v>-0.3753871839937288</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2833713473355108</v>
+        <v>-0.3103263593559</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6902596895678866</v>
+        <v>2.449905368147232</v>
       </c>
       <c r="F7" t="n">
-        <v>37.1099566874187</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="G7" t="n">
-        <v>24.85294758794172</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6471003688299458</v>
+        <v>0.6824903690816454</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.6761363636363636</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.161770463406284</v>
+        <v>-0.5769364516614778</v>
       </c>
       <c r="K7" t="n">
         <v>-0.8333333333333334</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Nathaniel Wood</t>
+          <t>Ronaldo Rodriguez</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>-0.5</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4756194665154442</v>
+        <v>0.07446198571808706</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9864761633057377</v>
+        <v>-0.6226030173568406</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4920989944985051</v>
+        <v>-0.04466345705685195</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1245377597567156</v>
+        <v>0.6789963324523616</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2863636363636364</v>
+        <v>0.340909090909091</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2645797329143754</v>
+        <v>0.08010212097407703</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1023762722580796</v>
+        <v>-0.07478947682077021</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="W7" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="X7" t="n">
-        <v>1.669305989138048</v>
+        <v>4.203128637936317</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.974675309344517</v>
+        <v>4.713386066049138</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.2689507062177793</v>
+        <v>-0.1060084012943383</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.138794033590802</v>
+        <v>0.5871758283817321</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.16164271274625</v>
+        <v>-8.310237563699913e-06</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.077065974218927</v>
+        <v>-0.1042892784868689</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.07654480471444</v>
+        <v>-0.09361791473222637</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.034505149595134e-05</v>
+        <v>468.107142857143</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.5116356872360044</v>
+        <v>-0.2640551288900914</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.408033962453077</v>
+        <v>0.1314714985491151</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.386007882195287</v>
+        <v>1.000470794587268</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.0009605849054817074</v>
+        <v>1.049247539509984</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.07856229728673378</v>
+        <v>-0.08026998372025949</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.05076646204177873</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.103964491349068</v>
+        <v>1.24558768131085</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.409831288176695</v>
+        <v>0.01879805980741904</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.016520433897458</v>
+        <v>0.4242375196121589</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.03592646862410857</v>
+        <v>0.4401617889419089</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.2620344196249199</v>
+        <v>0.5283584604432312</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.04325806273113569</v>
+        <v>-0.1331378299120234</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0.01700666737703382</v>
+        <v>-0.2528413511308215</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.227150537634408</v>
+        <v>-0.2638888888888889</v>
       </c>
       <c r="AT7" t="n">
-        <v>23.12903225806452</v>
+        <v>49.93333333333334</v>
       </c>
       <c r="AU7" t="n">
-        <v>11.58064516129032</v>
+        <v>19.26666666666667</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.04927726675427069</v>
+        <v>0.4349978659837815</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.08695652173913</v>
+        <v>2.043478260869565</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.03943313507542545</v>
+        <v>-0.12337101937417</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0.4166666666666667</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>Morgan Charriere</t>
+          <t>Kevin Borjas</t>
         </is>
       </c>
       <c r="BB7" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.3525287120504189</v>
+        <v>1.472281180278661</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.2290841672982815</v>
+        <v>0.5778312802016428</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.4460668310219008</v>
+        <v>-0.1672742573424217</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.5254488572879634</v>
+        <v>-0.07865055291287175</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.5149999999999999</v>
+        <v>-0.625</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.4110222222222221</v>
+        <v>0.1094272201786652</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.6605470450956553</v>
+        <v>-0.3824861600402617</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="BK7" t="n">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.9790915047726186</v>
+        <v>-0.0411764705882353</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.262187649236812</v>
+        <v>-0.06880220123914306</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.1217787741656518</v>
+        <v>0.8517857033602229</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.3989027218641272</v>
+        <v>0.6607573850016716</v>
       </c>
       <c r="BP7" t="n">
-        <v>2.032258064516129</v>
+        <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.2880795701665372</v>
+        <v>0.2361740658346477</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.1839983022071309</v>
+        <v>0.3010105017728724</v>
       </c>
       <c r="BS7" t="n">
-        <v>4756.627016129031</v>
+        <v>2184.526041665177</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.06326857957583315</v>
+        <v>0.699377073052342</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.2489355267712552</v>
+        <v>0.5099185787369452</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.4064354726080162</v>
+        <v>-0.07446104489384905</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.7101977107180021</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.9210703069683602</v>
+        <v>0.7740353233223457</v>
       </c>
       <c r="BY7" t="n">
-        <v>2.462914794231814</v>
+        <v>-0.06080938877893232</v>
       </c>
       <c r="BZ7" t="n">
-        <v>2.52340806451613</v>
+        <v>-0.07005469144762817</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.08069759838123643</v>
+        <v>0.3884883747138079</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.2776891328532848</v>
+        <v>0.07309545178658733</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.2542372881355933</v>
+        <v>-0.7627118644067798</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.09090909090909086</v>
+        <v>-0.4727272727272721</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>1</v>
-      </c>
-      <c r="CF7" t="n">
-        <v>0</v>
       </c>
       <c r="CG7" t="n">
         <v>0</v>
@@ -2704,260 +2704,260 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.134773939104484</v>
+        <v>0.7420888103870361</v>
       </c>
       <c r="B8" t="n">
-        <v>2.079079034481565</v>
+        <v>0.8343294120097966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.253355952784444</v>
+        <v>-0.2878615138295657</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3349514763124359</v>
+        <v>-0.1336569860169751</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.09357199585623971</v>
+        <v>-0.379236912377491</v>
       </c>
       <c r="F8" t="n">
-        <v>46.30562294956893</v>
+        <v>60.38095238095238</v>
       </c>
       <c r="G8" t="n">
-        <v>20.78651102464332</v>
+        <v>25.80952380952381</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3101310523424625</v>
+        <v>0.1247669939107743</v>
       </c>
       <c r="I8" t="n">
-        <v>0.875</v>
+        <v>0.6761363636363636</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.3282435565627508</v>
+        <v>-0.7435378479854413</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5833333333333334</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Jai Herbert</t>
+          <t>Edgar Chairez</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.8333333333333334</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1788420076798679</v>
+        <v>1.046400091645116</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.1637759629252379</v>
+        <v>-0.03630852156480279</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.1975782079224767</v>
+        <v>0.03198722239958295</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.3364622402432843</v>
+        <v>1.048342010226797</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.3954545454545455</v>
+        <v>-1.022727272727273</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.03519638648860964</v>
+        <v>-0.6347486252945796</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.3345561101497995</v>
+        <v>-0.5408928111971163</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.1995366277561614</v>
+        <v>-0.2387884934342836</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.2550178985037739</v>
+        <v>-0.2119776802191411</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3680793191464795</v>
+        <v>1.057539572588753</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3194861455850008</v>
+        <v>0.9104253583497214</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.567159843187913</v>
+        <v>0.4775827261770019</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.6595020758738815</v>
+        <v>1.572145082617727</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.4399579388530734</v>
+        <v>1.467921946436005</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>49.53514739229026</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.6705840291991776</v>
+        <v>1.106459280655137</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.7516168694845672</v>
+        <v>1.070264125953784</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1398330246681736</v>
+        <v>0.186391994410667</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.0009614211024111294</v>
+        <v>5.625158333145977</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.05786720722113491</v>
+        <v>-0.09555950442888037</v>
       </c>
       <c r="AK8" t="n">
         <v>-0.2142857142857142</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.232522949479032</v>
+        <v>-0.2322282117698194</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.3769527683420908</v>
+        <v>0.8163039595710624</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.211710632148778</v>
+        <v>0.5212357103577067</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.5122073035387196</v>
+        <v>1.095000020870066</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.2945386589758323</v>
+        <v>1.347334915486667</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0.1884134915210638</v>
+        <v>-0.07471797098861674</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.09727445314841672</v>
+        <v>0.0642750497941324</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.06481481481481473</v>
+        <v>-0.2608837092986784</v>
       </c>
       <c r="AT8" t="n">
-        <v>42.99999999999999</v>
+        <v>24.41622034027619</v>
       </c>
       <c r="AU8" t="n">
-        <v>26.33333333333333</v>
+        <v>12.75187304493782</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.1911957950065703</v>
+        <v>0.2022098923507374</v>
       </c>
       <c r="AW8" t="n">
-        <v>1.217391304347826</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.1832688460213865</v>
+        <v>-0.04214701372860906</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0.25</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="AZ8" t="n">
         <v>2.5</v>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>Chris Padilla</t>
+          <t>CJ Vergara</t>
         </is>
       </c>
       <c r="BB8" t="n">
-        <v>0.6</v>
+        <v>-0.6</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.80444050698153</v>
+        <v>0.7298272060043447</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.8742630271649255</v>
+        <v>0.6379250958802326</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.002342196905556</v>
+        <v>0.723580644618363</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.027004412843519</v>
+        <v>0.1223797501174313</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.875</v>
+        <v>-0.625</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0.7177777777777777</v>
+        <v>0.09584866001050969</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.9941026006512107</v>
+        <v>-0.3824861600402617</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="BK8" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.1075024657212879</v>
+        <v>0.2309567406729229</v>
       </c>
       <c r="BM8" t="n">
-        <v>-0.03750915545071585</v>
+        <v>0.3430491392196026</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.04501207005181231</v>
+        <v>-0.1162152450529203</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.5499653352693898</v>
+        <v>-0.00749074488940841</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>4.427807368749635</v>
+        <v>0.1128875937606655</v>
       </c>
       <c r="BR8" t="n">
-        <v>3.546477079796266</v>
+        <v>0.015474776718627</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
+        <v>8.000095368881398</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.4972375690607733</v>
+        <v>0.02373607145932886</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.9711771467368618</v>
+        <v>0.2130165733053953</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.5962605340188165</v>
+        <v>0.4772031923080965</v>
       </c>
       <c r="BW8" t="n">
-        <v>3.669354838709677</v>
+        <v>0.08398542353859274</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.4017154682586824</v>
+        <v>-0.2992980100109878</v>
       </c>
       <c r="BY8" t="n">
-        <v>1.717406614538001</v>
+        <v>-0.06080938877893232</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.9884833333333334</v>
+        <v>-0.07005469144762817</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.2217225275911633</v>
+        <v>0.09416097073569005</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.4170660416398762</v>
+        <v>0.3768302192062211</v>
       </c>
       <c r="CC8" t="n">
-        <v>1.101694915254237</v>
+        <v>-0.2033898305084745</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.07272727272727242</v>
+        <v>0.7090909090909083</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
       </c>
       <c r="CF8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG8" t="n">
         <v>0</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="CI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ8" t="n">
         <v>0</v>
@@ -3001,273 +3001,273 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.530872618338192</v>
+        <v>0.4038515660882716</v>
       </c>
       <c r="B9" t="n">
-        <v>1.106782196877085</v>
+        <v>-0.2951931753035257</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.3161702821237463</v>
+        <v>-0.5137342110274061</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1731307304403253</v>
+        <v>-0.4477358719528415</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.3863156245213358</v>
+        <v>0.0282302924661013</v>
       </c>
       <c r="F9" t="n">
-        <v>45</v>
+        <v>32.33333333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>18.33333333333333</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1431374087734442</v>
+        <v>0.9807381632906674</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2386363636363636</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2960305427739995</v>
+        <v>-0.4936357534994962</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.25</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Lone'er Kavanagh</t>
+          <t>Jose Daniel Medina</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>-0.8333333333333334</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2165280341986713</v>
+        <v>0.9142919995773643</v>
       </c>
       <c r="P9" t="n">
-        <v>0.04051592049802414</v>
+        <v>-0.7380852665279996</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1209474076534787</v>
+        <v>-0.887820931077635</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.3364622402432843</v>
+        <v>-0.3367042814273361</v>
       </c>
       <c r="S9" t="n">
-        <v>-1.022727272727273</v>
+        <v>-0.1227272727272727</v>
       </c>
       <c r="T9" t="n">
-        <v>0.9102513747054203</v>
+        <v>-0.6808680282796543</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.5406562905308746</v>
+        <v>-0.3346523977562552</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.2736378046714987</v>
+        <v>-0.2734503516580105</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.2625166576888432</v>
+        <v>-0.2618547814471743</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1149262628326298</v>
+        <v>-0.004372329193466225</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01600350793172907</v>
+        <v>0.01561697089507872</v>
       </c>
       <c r="AB9" t="n">
-        <v>-7.229638012017342e-06</v>
+        <v>-8.310237563699913e-06</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.035352914861483</v>
+        <v>0.5716782869403608</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.142838326947469</v>
+        <v>0.8111504705072398</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.5446589914205674</v>
+        <v>0.06474490081818249</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.455921392533389</v>
+        <v>0.003799754293326464</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.07720679454350526</v>
+        <v>-0.2782069312841984</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.0009614211024111294</v>
+        <v>-0.0009614950949978477</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.4004146790451985</v>
+        <v>0.2006749593006488</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0.2142857142857142</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0.232522949479032</v>
+        <v>0.6914067214055988</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.1891946139037197</v>
+        <v>-0.09854344570801735</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.09847589324085465</v>
+        <v>-0.1808006998897705</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.7578820440231488</v>
+        <v>-0.4892499757639735</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.8260148392645762</v>
+        <v>-0.4622444638215953</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.4853832999227863</v>
+        <v>-0.3695014662756597</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.4096302818870842</v>
+        <v>-0.3578856329945104</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.07331154684095859</v>
+        <v>-0.3055555555555556</v>
       </c>
       <c r="AT9" t="n">
-        <v>26.30588235294118</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>12.38823529411765</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.766754270696452</v>
+        <v>0.05622421397069285</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.217391304347826</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.2844970192472102</v>
+        <v>0.01877099050556165</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0.6666666666666666</v>
+        <v>1.25</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>Felipe dos Santos</t>
+          <t>Ateba Gautier</t>
         </is>
       </c>
       <c r="BB9" t="n">
-        <v>-0.2</v>
+        <v>2</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.3677190244850779</v>
+        <v>-0.6035595233046308</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.2290841672982815</v>
+        <v>0.7147116381362089</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0.3327186812152164</v>
+        <v>1.558757115206598</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.2245155239546301</v>
+        <v>-0.07865055291287175</v>
       </c>
       <c r="BG9" t="n">
         <v>-0.625</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0.5273777777777777</v>
+        <v>0.503205465055176</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0.3823418437932335</v>
+        <v>-0.3824861600402617</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="BK9" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.06246982790670088</v>
+        <v>-0.2161764705882353</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0.172149295940891</v>
+        <v>-0.1942468823925354</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0.004017292937164335</v>
+        <v>-0.6771371689802029</v>
       </c>
       <c r="BO9" t="n">
-        <v>-0.01800436839836861</v>
+        <v>-0.6206879627851395</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.5994669523638458</v>
+        <v>-0.3802002031712003</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.5583191850594228</v>
+        <v>-0.3669620741331023</v>
       </c>
       <c r="BS9" t="n">
         <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.1081139638175712</v>
+        <v>-0.717781732869509</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.1780758401408815</v>
+        <v>-0.7061235784155119</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.232081527254332</v>
+        <v>-1.297749639578513</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.381404174573055</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>1.131911546690056</v>
+        <v>-0.2992980100109878</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.06034366011647678</v>
+        <v>-0.06080938877893232</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0.06985000000000001</v>
+        <v>-0.07005469144762817</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.08447362535289206</v>
+        <v>-0.8709222293215815</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.1194895091790929</v>
+        <v>-0.8502757566516562</v>
       </c>
       <c r="CC9" t="n">
-        <v>-0.7796610169491524</v>
+        <v>0.593220338983051</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0.9818181818181809</v>
+        <v>-1.254545454545454</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
       </c>
       <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
         <v>1</v>
       </c>
-      <c r="CG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>0</v>
-      </c>
       <c r="CK9" t="n">
         <v>0</v>
       </c>
@@ -3293,301 +3293,301 @@
         <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.22622259296987</v>
+        <v>-0.2978428798830223</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2809496316550347</v>
+        <v>-0.102776977803142</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.509168334690667</v>
+        <v>0.1840086167372058</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.4441249047562247</v>
+        <v>0.4469482590505376</v>
       </c>
       <c r="E10" t="n">
-        <v>1.64669367727424</v>
+        <v>0.4112851844060311</v>
       </c>
       <c r="F10" t="n">
-        <v>7.006664988655038</v>
+        <v>47.72660684856253</v>
       </c>
       <c r="G10" t="n">
-        <v>2.345017359569846</v>
+        <v>21.21784776902887</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2773287294985482</v>
+        <v>0.5095066484404127</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2784090909090909</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.2033887366954007</v>
+        <v>-0.1187826117705785</v>
       </c>
       <c r="K10" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Christian Rodriguez</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.2746808290323989</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.003666103148290629</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.2619392607688872</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.7713327518959703</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4227272727272729</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.1954006284367634</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.04179101067023239</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.805780344153362</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.82593482466735</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.314248883176564</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.888549566132325</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-8.310237563699913e-06</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.3750339069099111</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.407946422829052</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>402.399373043486</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.9778546701914955</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.23026734237222</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.4787347896223436</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.1908684833006201</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.3511536185821277</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.1258403746043371</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.08508256228023624</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.087136156360309</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.155365068847562</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.2828735363974894</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.1551898356108279</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.2143428419088242</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.2143130578025633</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.6064135983490822</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>8.500488758553274</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>3.053763440860215</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.08976146440935173</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.07968899473973214</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>Melquizael Costa</t>
+        </is>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>-0.22475647520549</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.1705287517134222</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.1667963308928725</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1.228046416784098</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.03500000000000003</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>-0.03993694167104573</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.5717360621819604</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.5741461100569261</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.5194266702103417</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>-0.412349622964105</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>-0.344355532794173</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>-0.08408111757843059</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>-0.1727080747860569</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>1024.997556206535</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>-0.3575145648941745</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>-0.3361851041136744</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.2040426035402879</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>6.893431512575412</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.3712787250818766</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>1.023545690151068</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0.7661511362027129</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>-0.1486927586274024</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.064989649676977</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>-0.525423728813559</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>-0.2545454545454541</v>
+      </c>
+      <c r="CE10" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Marcin Tybura</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" t="n">
         <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.1270237212165132</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.01831028099549553</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.338837393960509</v>
-      </c>
-      <c r="R10" t="n">
-        <v>-0.2442622402432843</v>
-      </c>
-      <c r="S10" t="n">
-        <v>-0.1227272727272727</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.3798782403770621</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.0446682217513785</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.8638173361359729</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.080541989628311</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>-0.6440336282475159</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>-0.4219857650886735</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>-7.229637584437801e-06</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>-0.4901092581090258</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>-0.4717796832759481</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>511.9999847809478</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>-0.6966740122967312</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>-0.600105215575976</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0.05775664211045851</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0.9835337716637238</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0.2221320568401915</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0.0202407930032673</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>-0.05898546829593934</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0.7197711902203207</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>1.534866023039849</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>-0.17629275401855</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>-0.03723039463379978</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>-0.1855670229211706</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>-0.09471157194652892</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>-0.1722657099369428</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>54.34833659491193</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>26.62622309197651</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0.183311432325887</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>1.478260869565217</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0.05967876972059021</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BA10" t="inlineStr">
-        <is>
-          <t>Mick Parkin</t>
-        </is>
-      </c>
-      <c r="BB10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0.5082294145056757</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0.5767453145839343</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0.5016943676102663</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0.2245155239546301</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>-0.03777777777777779</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0.2467692673178775</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>-0.1860483497931941</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>-0.164829503835321</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0.800912931043657</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>0.841774925795262</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>2.609141670210068</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>2.938677615381804</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>256.4999999999999</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>0.8044025905223209</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>0.9729361450685164</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>0.2460800730101757</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>-0.05718864133035896</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>0.0509831672591461</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>-0.01219050880626224</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>0.4959208023788799</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>0.4283398424810618</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>1.52542372881356</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>-0.07272727272727242</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR10" t="n">
-        <v>0</v>
       </c>
       <c r="CS10" t="n">
         <v>0</v>
@@ -3595,260 +3595,260 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1198074644433643</v>
+        <v>0.1862495268698532</v>
       </c>
       <c r="B11" t="n">
-        <v>0.123778086814125</v>
+        <v>0.1531186274006106</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9282866109494672</v>
+        <v>0.1534379385297508</v>
       </c>
       <c r="D11" t="n">
-        <v>1.259437003813397</v>
+        <v>0.334717733885553</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3891687320786109</v>
+        <v>0.07664788517785151</v>
       </c>
       <c r="F11" t="n">
-        <v>15.53763440860215</v>
+        <v>43.82864818601605</v>
       </c>
       <c r="G11" t="n">
-        <v>9.390029325513195</v>
+        <v>17.79220997979683</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02385623479557404</v>
+        <v>0.7242450602709085</v>
       </c>
       <c r="I11" t="n">
         <v>0.9147727272727273</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.453098376430101</v>
+        <v>0.1311194827153669</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8333333333333334</v>
+        <v>-1.75</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Christian Leroy Duncan</t>
+          <t>Loopy Godinez</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.166666666666667</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2730570739768762</v>
+        <v>0.3292418775630364</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5245988616531452</v>
+        <v>0.2790468511718235</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.335037797457483</v>
+        <v>0.2619392607688872</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.3364622402432843</v>
+        <v>0.5866599130087526</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.640909090909091</v>
+        <v>0.2590909090909091</v>
       </c>
       <c r="T11" t="n">
-        <v>0.08010212097407703</v>
+        <v>0.4721170463472114</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.412874178694608</v>
+        <v>0.6759256281039645</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="W11" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6947420651356249</v>
+        <v>-0.232927291881706</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.8614549558762921</v>
+        <v>-0.2288603975579007</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.3244413067101154</v>
+        <v>0.7363748841890309</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2521689448349462</v>
+        <v>0.842695333445223</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.9411692409502231</v>
+        <v>0.02937473204868933</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6027098327151692</v>
+        <v>0.1347604804611926</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.6944816982389342</v>
+        <v>0.1178525153432755</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>243.8058036281941</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.2372674679244874</v>
+        <v>0.5649379464436544</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.2476816362663065</v>
+        <v>0.5177571015198044</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.249933983502556</v>
+        <v>-0.05791109839215357</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.0009614211024111294</v>
+        <v>3.991172697913467</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0.2148852969656051</v>
+        <v>0.3658718912339841</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.02660242982823614</v>
+        <v>0.9231782304775717</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.05895209942803505</v>
+        <v>1.162710528550037</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.2839572092170936</v>
+        <v>0.2841902820389815</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.1552893155048312</v>
+        <v>0.02569911466224237</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.4877926964612805</v>
+        <v>1.867486267120277</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.4611849059328836</v>
+        <v>2.389327103293939</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0.3702316733392456</v>
+        <v>3.070381231671554</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0.3592009119813503</v>
+        <v>3.682930693536101</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.3055555555555556</v>
+        <v>1.07078853046595</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>32.35483870967742</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>17.35483870967742</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.766754270696452</v>
+        <v>0.5908474415516669</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.1630232113762218</v>
+        <v>0.0593829933283419</v>
       </c>
       <c r="AY11" t="n">
-        <v>1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>Andrey Pulyaev</t>
+          <t>Julia Polastri</t>
         </is>
       </c>
       <c r="BB11" t="n">
-        <v>1.4</v>
+        <v>-1.6</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.07150793200922347</v>
+        <v>0.9457449434208547</v>
       </c>
       <c r="BD11" t="n">
-        <v>1.118294409394278</v>
+        <v>0.7948367257076622</v>
       </c>
       <c r="BE11" t="n">
-        <v>1.391734953024115</v>
+        <v>0.6122237818732649</v>
       </c>
       <c r="BF11" t="n">
-        <v>-0.07641780937870324</v>
+        <v>0.5244403561780373</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.3702222222222222</v>
+        <v>0.1094272201786652</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.03988037842898869</v>
+        <v>0.08618050662640496</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="BK11" t="n">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.2168674432709992</v>
+        <v>0.1648719165085389</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0.1942819217748923</v>
+        <v>0.1699473532140874</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0.6747225899813551</v>
+        <v>0.2754837987617327</v>
       </c>
       <c r="BO11" t="n">
-        <v>-0.6207699186213946</v>
+        <v>0.4912361564560526</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0.3789578419019756</v>
+        <v>1.111027867004238</v>
       </c>
       <c r="BR11" t="n">
-        <v>-0.3679966044142614</v>
+        <v>1.313743116856124</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>-0.718232044198895</v>
+        <v>0.5557019867376842</v>
       </c>
       <c r="BU11" t="n">
-        <v>-0.7039489462855578</v>
+        <v>1.037306037573673</v>
       </c>
       <c r="BV11" t="n">
-        <v>-1.29787091058299</v>
+        <v>0.6046099589998258</v>
       </c>
       <c r="BW11" t="n">
-        <v>0</v>
+        <v>1.387092926310906</v>
       </c>
       <c r="BX11" t="n">
-        <v>-0.2982845317413179</v>
+        <v>0.2200568286986899</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.06034366011647678</v>
+        <v>0.3406105202480387</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0.06985000000000001</v>
+        <v>0.6460023451301772</v>
       </c>
       <c r="CA11" t="n">
-        <v>-0.8712206737857726</v>
+        <v>0.7303947029284756</v>
       </c>
       <c r="CB11" t="n">
-        <v>-0.843133508638886</v>
+        <v>1.269798554942793</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0.1186440677966101</v>
+        <v>0.2033898305084751</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0.4363636363636358</v>
+        <v>-0.5090909090909083</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
       </c>
       <c r="CF11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG11" t="n">
         <v>0</v>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="CO11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP11" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="CR11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -3892,270 +3892,270 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.41549308251059</v>
+        <v>0.1484075557068134</v>
       </c>
       <c r="B12" t="n">
-        <v>1.57878020210573</v>
+        <v>-0.2482776922566631</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.005645897895066879</v>
+        <v>-0.1583235864477751</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.09469688507757984</v>
+        <v>0.02511754484070937</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.09903218271464841</v>
+        <v>-0.2070218066792501</v>
       </c>
       <c r="F12" t="n">
-        <v>46.71428571428571</v>
+        <v>46.59542255183342</v>
       </c>
       <c r="G12" t="n">
-        <v>17.71428571428571</v>
+        <v>22.36944883797113</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9810876559679823</v>
+        <v>0.6795078911395552</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.5170454545454546</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.7444262894539178</v>
+        <v>0.04781878455338511</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.083333333333333</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Shauna Bannon</t>
+          <t>Rafa Garcia</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>-1.166666666666667</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3672721402738846</v>
+        <v>0.6453576692965848</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3736005130359515</v>
+        <v>0.1946559767775151</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.2742090081914748</v>
+        <v>-0.1979648159697218</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.3364622402432843</v>
+        <v>-0.05969502309650952</v>
       </c>
       <c r="S12" t="n">
-        <v>-1.022727272727273</v>
+        <v>0.1772727272727273</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.4272113118617439</v>
+        <v>0.3337588373919874</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.5406562905308746</v>
+        <v>0.853292383663105</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.2736378046714987</v>
+        <v>-0.1356280661225259</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.2625166576888432</v>
+        <v>-0.1497934996161521</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1426426892806681</v>
+        <v>0.900295849605809</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0.1011061585500892</v>
+        <v>1.5839982163227</v>
       </c>
       <c r="AB12" t="n">
-        <v>-7.229638012017342e-06</v>
+        <v>-8.310237563699913e-06</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.473792673375399</v>
+        <v>-0.2502008533921763</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.811669495778638</v>
+        <v>-0.1958255260407502</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.6440819408373133</v>
+        <v>0.6395159024821513</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.4217272880933848</v>
+        <v>0.8391306848381749</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.222344937401364</v>
+        <v>0.09576226494835881</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.0009614211024111294</v>
+        <v>0.002944580561890407</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.05720209700645695</v>
+        <v>-0.08879375895370691</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.2142857142857142</v>
+        <v>0.01109433703152525</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.232522949479032</v>
+        <v>-0.1412991871433976</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.405591896871354</v>
+        <v>0.748159618370505</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.655999158695353</v>
+        <v>0.9679291464340493</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.218089656479896</v>
+        <v>0.738202765565616</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.82124862854984</v>
+        <v>0.6289929274437245</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0.006595309702882094</v>
+        <v>-0.09480638885797335</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.2282376825648836</v>
+        <v>0.01626120556472499</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.3055555555555556</v>
+        <v>-0.1682967674108602</v>
       </c>
       <c r="AT12" t="n">
-        <v>61.66666666666666</v>
+        <v>46.59157884561701</v>
       </c>
       <c r="AU12" t="n">
-        <v>30.33333333333333</v>
+        <v>19.54751738568781</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.766754270696452</v>
+        <v>0.4428889837340542</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.782608695652174</v>
+        <v>2.043478260869565</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.223760115311716</v>
+        <v>-0.001535010905828587</v>
       </c>
       <c r="AY12" t="n">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
         <v>1.5</v>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>Puja Tomar</t>
+          <t>Vinc Pichel</t>
         </is>
       </c>
       <c r="BB12" t="n">
-        <v>-2.4</v>
+        <v>0.2</v>
       </c>
       <c r="BC12" t="n">
-        <v>1.058878240262072</v>
+        <v>0.0896500547167967</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.051436496454729</v>
+        <v>0.1438203891896044</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.2235566846684386</v>
+        <v>0.1667963308928725</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.07641780937870324</v>
+        <v>0.1223797501174313</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.625</v>
+        <v>0.4550000000000001</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.6422222222222221</v>
+        <v>-0.3794009458749343</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0.3823418437932335</v>
+        <v>0.7912916177375159</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.2168674432709992</v>
+        <v>0.03012140084531982</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0.1942819217748923</v>
+        <v>0.08334462832434193</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.3236190352259417</v>
+        <v>0.4530912543369165</v>
       </c>
       <c r="BO12" t="n">
-        <v>-0.004593469205192492</v>
+        <v>0.1880501068756472</v>
       </c>
       <c r="BP12" t="n">
-        <v>0</v>
+        <v>6.008148238123569e-05</v>
       </c>
       <c r="BQ12" t="n">
-        <v>3.24878948689169</v>
+        <v>2.071382415440773</v>
       </c>
       <c r="BR12" t="n">
-        <v>1.980687606112054</v>
+        <v>2.305951127721045</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>0.9999966695897662</v>
       </c>
       <c r="BT12" t="n">
-        <v>1.022099447513812</v>
+        <v>0.6170001037922969</v>
       </c>
       <c r="BU12" t="n">
-        <v>1.175460816617645</v>
+        <v>0.5889875435994354</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.2557425215061322</v>
+        <v>0.1172505764505047</v>
       </c>
       <c r="BW12" t="n">
-        <v>0</v>
+        <v>0.002625145205923048</v>
       </c>
       <c r="BX12" t="n">
-        <v>-0.2982845317413179</v>
+        <v>0.03845760553449093</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.06034366011647678</v>
+        <v>0.5045108234554734</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-0.06985000000000001</v>
+        <v>0.9278293952523978</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.6669956837076928</v>
+        <v>0.3813800462677993</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.5520874220268864</v>
+        <v>0.2232371322437215</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.1694915254237289</v>
+        <v>0.03389830508474626</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.2545454545454547</v>
+        <v>2.254545454545453</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
       </c>
       <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
         <v>1</v>
       </c>
-      <c r="CG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>0</v>
-      </c>
       <c r="CJ12" t="n">
         <v>0</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="CO12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP12" t="n">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS12" t="n">
         <v>0</v>
@@ -4189,257 +4189,257 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.5097859524231344</v>
+        <v>0.5467840770234389</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.6953920049050092</v>
+        <v>0.2279171709440644</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5137767084510877</v>
+        <v>-0.3288709954760881</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4476491892099344</v>
+        <v>-0.3421059261769835</v>
       </c>
       <c r="E13" t="n">
-        <v>1.497390993907324</v>
+        <v>0.5427599792590306</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>23.98351950192272</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>11.27571262894464</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5874597818410107</v>
+        <v>-0.0571641605567291</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6761363636363636</v>
+        <v>1.630681818181818</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.827662836032151</v>
+        <v>-0.1187826117705785</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.5</v>
+        <v>3</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Nathan Fletcher</t>
+          <t>Jamall Emmers</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>-0.3333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.956449541199083</v>
+        <v>0.4990951387930025</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.5679186018712565</v>
+        <v>0.7853920975376742</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.948084199609466</v>
+        <v>0.2619392607688872</v>
       </c>
       <c r="R13" t="n">
-        <v>1.876337759756715</v>
+        <v>-0.1520314425401184</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7772727272727276</v>
+        <v>0.06818181818181826</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.395718774548311</v>
+        <v>0.6796543597800472</v>
       </c>
       <c r="U13" t="n">
-        <v>3.428833183608631</v>
+        <v>0.2139471019964355</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="X13" t="n">
-        <v>3.006668840403626</v>
+        <v>1.030663187635126</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.49390824804401</v>
+        <v>1.062235666251465</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.2731037074399054</v>
+        <v>-0.1790663415499207</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.484442173859002</v>
+        <v>0.0545927908206145</v>
       </c>
       <c r="AB13" t="n">
-        <v>-7.229638012017342e-06</v>
+        <v>15.04502761293961</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.2500666725818787</v>
+        <v>0.6456457459820965</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.1818369977278556</v>
+        <v>0.6441792212582648</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>292.5848222460565</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.4152867270859399</v>
+        <v>-0.0414048981886944</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.02279606962666892</v>
+        <v>0.1290517905230262</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.255208943167982</v>
+        <v>0.7464735482883874</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.0009614211024111294</v>
+        <v>0.02980822575041456</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2.002073395225993</v>
+        <v>0.4285426433554599</v>
       </c>
       <c r="AK13" t="n">
-        <v>4.285714285714286</v>
+        <v>0.2176864519841997</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.848293217733897</v>
+        <v>0.000109694786318987</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.02853836898346657</v>
+        <v>-0.09952932821501369</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.8090112025882183</v>
+        <v>-0.04136086558753995</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.312899345061211</v>
+        <v>0.628397083059556</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.059153089354063</v>
+        <v>0.1254013387083865</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0.04830653964940613</v>
+        <v>0.2668621700879765</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.07066662927975817</v>
+        <v>0.1410747058580119</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.5759803921568628</v>
+        <v>0.3277777777777778</v>
       </c>
       <c r="AT13" t="n">
-        <v>60.00392156862744</v>
+        <v>19.53333333333333</v>
       </c>
       <c r="AU13" t="n">
-        <v>23.61960784313726</v>
+        <v>6.066666666666666</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.766754270696452</v>
+        <v>-0.5474462939251672</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.478260869565217</v>
+        <v>1.130434782608696</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.02130376886006858</v>
+        <v>-0.3670430363108526</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0.8333333333333334</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>Caolan Loughran</t>
+          <t>Gabriel Miranda</t>
         </is>
       </c>
       <c r="BB13" t="n">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>1.066473396479402</v>
+        <v>0.9419569129398634</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.8207766968132866</v>
+        <v>-0.1232632360485732</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.001046538314976678</v>
+        <v>-0.1672742573424217</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.07641780937870324</v>
+        <v>1.228046416784098</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.105</v>
+        <v>0.03500000000000003</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.6422222222222221</v>
+        <v>-0.718864950078823</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.4621026006512108</v>
+        <v>1.243069395515294</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="BK13" t="n">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.9784274290076109</v>
+        <v>-0.2161764705882353</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.046989510415352</v>
+        <v>-0.1942468823925354</v>
       </c>
       <c r="BN13" t="n">
-        <v>1.060288628436361</v>
+        <v>-0.1907674881291391</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.9671530371976531</v>
+        <v>-0.1832715219540647</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.9280981809722131</v>
+        <v>0.05488751612704526</v>
       </c>
       <c r="BR13" t="n">
-        <v>1.020161290322581</v>
+        <v>-0.2778990640123057</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>1.072581518795363</v>
+        <v>-0.1141088908664347</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.9723788153832198</v>
+        <v>-0.2557375942849723</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.009743295554873825</v>
+        <v>-0.1148827549790812</v>
       </c>
       <c r="BW13" t="n">
-        <v>0</v>
+        <v>2.866658714375873</v>
       </c>
       <c r="BX13" t="n">
-        <v>1.864852723160644</v>
+        <v>1.70736865665568</v>
       </c>
       <c r="BY13" t="n">
-        <v>1.410657547538797</v>
+        <v>1.479878452534109</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.7422029411764706</v>
+        <v>0.8453389849317891</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.8104355496138946</v>
+        <v>-0.22424155972703</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.4636616552636287</v>
+        <v>-0.3342741989949907</v>
       </c>
       <c r="CC13" t="n">
-        <v>-0.5423728813559322</v>
+        <v>0.8983050847457636</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0.1999999999999995</v>
+        <v>0.9272727272727269</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF13" t="n">
         <v>0</v>
@@ -4486,254 +4486,254 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.360849248714259</v>
+        <v>1.107117123541149</v>
       </c>
       <c r="B14" t="n">
-        <v>1.679040736768811</v>
+        <v>0.8057339034702189</v>
       </c>
       <c r="C14" t="n">
-        <v>1.450896466250453</v>
+        <v>-0.2172762959552405</v>
       </c>
       <c r="D14" t="n">
-        <v>2.172278808114483</v>
+        <v>-0.03550733416201675</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1352546562463984</v>
+        <v>0.5579982036669088</v>
       </c>
       <c r="F14" t="n">
-        <v>29.64338055691255</v>
+        <v>47.66666666666666</v>
       </c>
       <c r="G14" t="n">
-        <v>10.02979970688813</v>
+        <v>17</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9035548928823667</v>
+        <v>0.01143283211134596</v>
       </c>
       <c r="I14" t="n">
-        <v>0.875</v>
+        <v>1.948863636363636</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.1201521901171677</v>
+        <v>0.1311194827153669</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Guram Kutateladze</t>
+          <t>MarQuel Mederos</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4520656999411922</v>
+        <v>0.1405160317519629</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1870731412147122</v>
+        <v>0.3812042254386178</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.03231419288451735</v>
+        <v>0.03198722239958295</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.3364622402432843</v>
+        <v>-0.3367042814273361</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.4772727272727273</v>
+        <v>-1.022727272727273</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4259976433621367</v>
+        <v>0.6796543597800472</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.223262012744019</v>
+        <v>-0.5408928111971163</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="X14" t="n">
-        <v>0.03858157882409008</v>
+        <v>-0.2734503516580105</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.1082384265214381</v>
+        <v>-0.2618547814471743</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.0995791678827281</v>
+        <v>0.5038080313108934</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.132228610218926</v>
+        <v>0.05476483784621919</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.02939016683889823</v>
+        <v>-8.310237563699913e-06</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.08688478393517392</v>
+        <v>1.028413128445246</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.1972194612015881</v>
+        <v>1.031825686419305</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.2475717359269895</v>
+        <v>0.6527449539461176</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.2791210010370512</v>
+        <v>0.3761756750393771</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.1041138465990244</v>
+        <v>-0.3281552799510526</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.0009614211024111294</v>
+        <v>-0.0009614950949978477</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.9903759257478459</v>
+        <v>-0.4013499186012975</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.6357387117035384</v>
+        <v>-0.2142857142857142</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.2066136329518351</v>
+        <v>-0.2322282117698194</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.1116694826662929</v>
+        <v>0.4996681510373447</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.1151182849567256</v>
+        <v>0.1015504692111299</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.09203923631182888</v>
+        <v>1.488669798474942</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.1146044768547096</v>
+        <v>1.357134550056826</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0.05854336165093391</v>
+        <v>0.9715115771689937</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.1908196170173216</v>
+        <v>0.381672508658327</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0.003968253968253905</v>
+        <v>-0.1860586824500831</v>
       </c>
       <c r="AT14" t="n">
-        <v>11.85714285714286</v>
+        <v>55.54871098842355</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.285714285714286</v>
+        <v>19.06903147903179</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.1616294349540079</v>
+        <v>0.4882629107981221</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.434782608695652</v>
+        <v>1.08695652173913</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.2216438468819082</v>
+        <v>0.03907699191695166</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>Kaue Fernandes</t>
+          <t>Austin Hubbard</t>
         </is>
       </c>
       <c r="BB14" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0.741173783245044</v>
+        <v>0.4192087065630492</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0.04837617140084526</v>
+        <v>0.3107476549634653</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.7798320505520935</v>
+        <v>-0.0002389632247747203</v>
       </c>
       <c r="BF14" t="n">
-        <v>-0.07641780937870324</v>
+        <v>-0.07865055291287175</v>
       </c>
       <c r="BG14" t="n">
-        <v>1.375</v>
+        <v>0.05500000000000005</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.1254222222222222</v>
+        <v>0.1908985811875986</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0.06145295490434464</v>
+        <v>0.2677360621819605</v>
       </c>
       <c r="BJ14" t="n">
         <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.2168674432709992</v>
+        <v>-0.1915805349575581</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0.1942819217748923</v>
+        <v>-0.1746046151660963</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0.4558171173445392</v>
+        <v>0.9418030297818236</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0.435916983796534</v>
+        <v>0.4189652948756135</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.5538914712163956</v>
+        <v>0.4230053717902598</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.7823793354353624</v>
+        <v>0.4726531113263654</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
+        <v>7.999973535531474</v>
       </c>
       <c r="BT14" t="n">
-        <v>-0.3591160220994475</v>
+        <v>0.9535652429791737</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0.2311781674186031</v>
+        <v>0.5828956981812311</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.6631480007623799</v>
+        <v>-0.2381367656871937</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>-0.1982845317413179</v>
+        <v>2.953329268931696</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.1936206648341628</v>
+        <v>0.4880032999676888</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.3837214285714285</v>
+        <v>0.264168549286444</v>
       </c>
       <c r="CA14" t="n">
-        <v>-0.06972899277601949</v>
+        <v>0.6268513447803834</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.2949038403373429</v>
+        <v>0.1475193829350545</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.4745762711864415</v>
+        <v>-0.3559322033898302</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.01818181818181843</v>
+        <v>0.6181818181818175</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>

--- a/data/validation_scaled.xlsx
+++ b/data/validation_scaled.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -922,260 +922,260 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4281137408932383</v>
+        <v>1.145536963601043</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3797023326966128</v>
+        <v>0.6460051771242395</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.115895758375568</v>
+        <v>-0.5088579434901038</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.08550669010795267</v>
+        <v>-0.4440611109886154</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.338299749267865</v>
+        <v>-0.3601930619372304</v>
       </c>
       <c r="F2" t="n">
-        <v>64.40502166378798</v>
+        <v>48.55961759178579</v>
       </c>
       <c r="G2" t="n">
-        <v>24.27014381982306</v>
+        <v>14.09537417854223</v>
       </c>
       <c r="H2" t="n">
-        <v>1.278985957499689</v>
+        <v>0.6102334823646298</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3977272727272727</v>
+        <v>2.267045454545455</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00616843547239421</v>
+        <v>0.0481707279019838</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Brandon Moreno</t>
+          <t>Josh Emmett</t>
         </is>
       </c>
       <c r="N2" t="n">
         <v>-0.3333333333333333</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2537515392386069</v>
+        <v>0.7627123122828531</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2035392267137581</v>
+        <v>0.225753587656721</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1213141365132869</v>
+        <v>-0.658387797695989</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03264139634709939</v>
+        <v>-0.2447757936507935</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2318181818181819</v>
+        <v>-0.01363636363636365</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08010212097407703</v>
+        <v>-0.3358272020180785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1149517035448221</v>
+        <v>-0.1656775630499502</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="W2" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.2672443676807418</v>
+        <v>-0.2496142363828376</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.2564442242626364</v>
+        <v>-0.2339376104719184</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.562415454728816</v>
+        <v>0.6225057428816915</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.439066876758125</v>
+        <v>-0.09537708166601298</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0001065793604616097</v>
+        <v>0.001918560594928582</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1275187876038767</v>
+        <v>0.2543480287435925</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.02920739467103866</v>
+        <v>0.3644887073585785</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7618934994818478</v>
+        <v>0.02083301544204611</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.268455294621101</v>
+        <v>0.6522524408858471</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.9477164630274059</v>
+        <v>0.0698585503366502</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.2176270962986034</v>
+        <v>-0.7442351966386869</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.0009612310117851299</v>
+        <v>-0.0009614201855285323</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.375216646476945</v>
+        <v>-0.3589192982496353</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.1845760975778121</v>
+        <v>-0.19084247905561</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.2067493481881287</v>
+        <v>-0.2213002794464477</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.8906864653922844</v>
+        <v>0.3414256080477758</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.2862188271982875</v>
+        <v>-0.3530811627956538</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.1428857255437746</v>
+        <v>0.905394876194941</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.1576446317784692</v>
+        <v>0.8651790519754785</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.2851960756584635</v>
+        <v>0.8391555895319069</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.2655502857330576</v>
+        <v>0.8002051259538419</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.1974626622715989</v>
+        <v>0.4528551788447639</v>
       </c>
       <c r="AT2" t="n">
-        <v>38.6585276523013</v>
+        <v>41.04769334353131</v>
       </c>
       <c r="AU2" t="n">
-        <v>19.4274203393969</v>
+        <v>21.73100801660159</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.5178546023616446</v>
+        <v>0.612866074366568</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.391304347826087</v>
+        <v>1</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.04214701372860906</v>
+        <v>0.1001937000530008</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.4166666666666667</v>
+        <v>-0.25</v>
       </c>
       <c r="AZ2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>Lerone Murphy</t>
+        </is>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.05478761438644598</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.5375893270502977</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.6125627408093289</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.5196219698367696</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.4550000000000001</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-0.06720000000000002</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.3684910394265233</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>-0.001513179003463018</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-0.1463952673476747</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.5485546724559411</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.9505888638615329</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.2499394415654022</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.465354990548735</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.4607193937986266</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.5544088972477208</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.8188057260314661</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.358922301815669</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.08333302868914802</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.4871997589106731</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1.81733488412378</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>2.803075660869807</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.5406730094409368</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.7625251277247789</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1.64406779661017</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.6909090909090913</v>
+      </c>
+      <c r="CE2" t="n">
         <v>1</v>
       </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>Steve Erceg</t>
-        </is>
-      </c>
-      <c r="BB2" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.5328496209927913</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.3942112878503958</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.2781531936379704</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.4239252046628858</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>-0.105</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.09584866001050969</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.107291617737516</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>-0.1923812990585076</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>-0.1610517479278818</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.5151996865332436</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.8552176762614833</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.9844951776339887</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>-0.02656859637983527</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.06724864255733373</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>528.062698388115</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.3599997297749781</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.5057661760220226</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.3073035906189949</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>0.013124124257001</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>0.9940483457453305</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.8377069466505715</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>0.7268458427073572</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.1892973464284483</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.2451280216840596</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.1525423728813563</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>-0.03636363636363621</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
       <c r="CF2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
         <v>0</v>
@@ -1219,257 +1219,257 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.02815441920420995</v>
+        <v>-0.2011101948120865</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2481214869484519</v>
+        <v>-0.1444083207989215</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.005520642332265042</v>
+        <v>-0.2071384556468966</v>
       </c>
       <c r="D3" t="n">
-        <v>0.258941621402858</v>
+        <v>-0.02515186485710568</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04926718482955957</v>
+        <v>0.5374004005092217</v>
       </c>
       <c r="F3" t="n">
-        <v>14.28571428571428</v>
+        <v>5.9820545687603</v>
       </c>
       <c r="G3" t="n">
-        <v>7.714285714285714</v>
+        <v>3.021607764145761</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.229277991798186</v>
+        <v>-0.3525086934923</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6761363636363636</v>
+        <v>0.5568181818181818</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.3270343571755325</v>
+        <v>-0.4934653052226377</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Manuel Torres</t>
+          <t>Pat Sabatini</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1666666666666667</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="O3" t="n">
-        <v>0.725566153766291</v>
+        <v>-0.7188892115266711</v>
       </c>
       <c r="P3" t="n">
-        <v>1.615975966576394</v>
+        <v>-0.7070134219305435</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7984940169639315</v>
+        <v>1.106101000674683</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6789963324523616</v>
+        <v>1.508501984126984</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7772727272727276</v>
+        <v>0.1772727272727273</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6335349567949725</v>
+        <v>-0.2435883960479293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3913138575555759</v>
+        <v>1.096597238649766</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.03948280864785399</v>
+        <v>1.113690472264836</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0748156518420498</v>
+        <v>1.298410530831815</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.4847949389139747</v>
+        <v>-0.6387510408715765</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.2360478880765396</v>
+        <v>-0.2876232017026038</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.89494967295571</v>
+        <v>0.001829425448201694</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.1721470263675945</v>
+        <v>-0.3140506506809457</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.08731290856331025</v>
+        <v>-0.2586799570685957</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.333394372215101</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.4923980066645547</v>
+        <v>-0.663971595703305</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.2393845204796047</v>
+        <v>-0.4213755014311409</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.032342598022308</v>
+        <v>1.281709905473242</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.499934367497782</v>
+        <v>2.015261657229256</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.3726820672726336</v>
+        <v>0.7709099208440331</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.5</v>
+        <v>0.5652418447694039</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.35114595938804</v>
+        <v>0.56977589210373</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.7657794574624597</v>
+        <v>-0.5494815707690348</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.5582293034838308</v>
+        <v>-0.08135974378255867</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.330729750414521</v>
+        <v>-0.1022995221872474</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.43920978807992</v>
+        <v>-0.1025958142242233</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.8903562814848462</v>
+        <v>0.132263435489242</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.4700856863712808</v>
+        <v>0.2596096933823609</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.154683275914195</v>
+        <v>1.869285353596077</v>
       </c>
       <c r="AT3" t="n">
-        <v>50.70597795405104</v>
+        <v>18.42905982905983</v>
       </c>
       <c r="AU3" t="n">
-        <v>20.28009687777409</v>
+        <v>7.204395604395605</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.05227865509555651</v>
+        <v>-0.07222770648239549</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.608695652173913</v>
+        <v>1.173913043478261</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.08275901655138954</v>
+        <v>-0.2253479359086792</v>
       </c>
       <c r="AY3" t="n">
         <v>-0.4166666666666667</v>
       </c>
       <c r="AZ3" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>Drew Dober</t>
+          <t>Joanderson Brito</t>
         </is>
       </c>
       <c r="BB3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>-0.04344193921531956</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>-0.05786714808641857</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.3897076814762458</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.8211674243822241</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.7350000000000001</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.2591999999999999</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.9173799283154122</v>
+      </c>
+      <c r="BJ3" t="n">
         <v>-0.2</v>
       </c>
-      <c r="BC3" t="n">
-        <v>0.5442137124357657</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0.4008883784813501</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>-0.1672742573424217</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0.02186459860227976</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>-0.285</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0.04153441933788761</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>-0.09959727115137282</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
       <c r="BK3" t="n">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.02916235573198944</v>
+        <v>0.03161208509353078</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0.04415148556217845</v>
+        <v>0.1159720358035514</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.7881673323508788</v>
+        <v>-0.207648317783472</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.4938735579055979</v>
+        <v>-0.3014833476600918</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.299705171579281</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.6000253849531667</v>
+        <v>1.077492877492878</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.6651437862710328</v>
+        <v>1.147908091187686</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.4999983310696123</v>
+        <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.8253221149709363</v>
+        <v>-0.1375973726852812</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.6880910603331118</v>
+        <v>-0.1281268659413778</v>
       </c>
       <c r="BV3" t="n">
-        <v>-0.02197139881461407</v>
+        <v>0.07092611084394163</v>
       </c>
       <c r="BW3" t="n">
-        <v>9.777040921935326e-12</v>
+        <v>8.376998574940684</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.5335969089266578</v>
+        <v>0.510598290598291</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.05035219890470994</v>
+        <v>1.550776497390909</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.1282365123844207</v>
+        <v>2.397192708214484</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.5187197920077752</v>
+        <v>-0.01607960294669474</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.2155219067838259</v>
+        <v>0.02239597094105612</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0.0677966101694913</v>
+        <v>0.6779661016949154</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.181818181818181</v>
+        <v>0.03636363636363685</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="CI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
@@ -1516,254 +1516,254 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5649734846320408</v>
+        <v>-0.4406251680406414</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5028908015092832</v>
+        <v>-0.4950534184252447</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4434777851479039</v>
+        <v>-0.5137595980082659</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3767402910234142</v>
+        <v>-0.4474703522087021</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1913005682778006</v>
+        <v>1.363311065473177</v>
       </c>
       <c r="F4" t="n">
-        <v>69.37686881989728</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>30.99339762735342</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7331924940971791</v>
+        <v>0.1154495777446597</v>
       </c>
       <c r="I4" t="n">
-        <v>1.153409090909091</v>
+        <v>0.3977272727272727</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187826117705785</v>
+        <v>-0.8684440973858371</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Kelvin Gastelum</t>
+          <t>Cortavious Romious</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2301608085122228</v>
+        <v>0.01247459799713858</v>
       </c>
       <c r="P4" t="n">
-        <v>0.09249860251072067</v>
+        <v>-0.6359454592953233</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.1979648159697218</v>
+        <v>-0.5816708934190032</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.2443678619837273</v>
+        <v>0.5857242063492062</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.0954545454545454</v>
+        <v>0.7772727272727276</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.03519638648860964</v>
+        <v>0.2176056338028169</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.08716390162722179</v>
+        <v>0.2715810283885138</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="W4" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.2180034857936415</v>
+        <v>0.09054831110214463</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.2373043969462026</v>
+        <v>0.1308667068191013</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.478984332601722</v>
+        <v>-0.4829932022912416</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.564252438619051</v>
+        <v>-0.3754902621084718</v>
       </c>
       <c r="AB4" t="n">
-        <v>-8.301150643294252e-06</v>
+        <v>-7.655679426618171e-06</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.568763441837058</v>
+        <v>-0.2509426579088473</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.489907695683031</v>
+        <v>-0.2927598545754072</v>
       </c>
       <c r="AE4" t="n">
-        <v>24.38208005670462</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.414156491307799</v>
+        <v>-0.5715160273587172</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.431711817459498</v>
+        <v>-0.5826031516665523</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.1567632336297398</v>
+        <v>0.4378911604442573</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.0009614950949974071</v>
+        <v>-0.0009614211024111294</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.2291895573102678</v>
+        <v>1.003513319443474</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.285769902435905</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.15325643545493</v>
+        <v>1.919030351295662</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.071088184109367</v>
+        <v>-0.777137385345921</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.7238812421507314</v>
+        <v>-0.7666236789831629</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.3002055324667161</v>
+        <v>4.391559559907128</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.161215368608173</v>
+        <v>4.992302404943734</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.3630969119258999</v>
+        <v>8.903225806451614</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.3486351580750074</v>
+        <v>10.02490605212513</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.1195640356599261</v>
+        <v>-0.1760029175784099</v>
       </c>
       <c r="AT4" t="n">
-        <v>36.47358121330724</v>
+        <v>14</v>
       </c>
       <c r="AU4" t="n">
-        <v>12.42465753424657</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.1351353914734197</v>
+        <v>0.2713063507732807</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.695652173913043</v>
+        <v>1.782608695652174</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.08275901655138954</v>
+        <v>-0.3677724016419143</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.8333333333333334</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>Joe Pyfer</t>
+          <t>ChangHo Lee</t>
         </is>
       </c>
       <c r="BB4" t="n">
-        <v>0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.2525353653994273</v>
+        <v>-0.06235139783386353</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.1772058423443766</v>
+        <v>0.5710419380130347</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.1115958259698729</v>
+        <v>1.50398297814166</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.8259858107234919</v>
+        <v>-0.08346893925413948</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.195</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0.03993694167104573</v>
+        <v>-0.2032</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.2297360621819604</v>
+        <v>0.9849354838709677</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="BK4" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.1988391418211121</v>
+        <v>-0.2166998120125785</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0.1785969833249644</v>
+        <v>-0.1948237977216719</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.3618729592622923</v>
+        <v>-0.02577039430851551</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.2097534375192742</v>
+        <v>0.3945933756166314</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.1232876712328767</v>
+        <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.2482716614217891</v>
+        <v>0.07251461988304103</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.02643985099512502</v>
+        <v>-0.1447289485600295</v>
       </c>
       <c r="BS4" t="n">
         <v>0</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.2912510403356557</v>
+        <v>0.6058577723446671</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.06043801385932775</v>
+        <v>1.346988532067798</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.3470754826712737</v>
+        <v>0.8849750801833005</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.2524454836534525</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.517140346153396</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.005147025100604772</v>
+        <v>-0.06154095615562098</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0.004026105217596479</v>
+        <v>-0.07256841405566676</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.05206889173598465</v>
+        <v>1.196385747648427</v>
       </c>
       <c r="CB4" t="n">
-        <v>-0.228636224321777</v>
+        <v>2.047438057026853</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.5084745762711865</v>
+        <v>0.1355932203389832</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0.2545454545454541</v>
+        <v>0.1818181818181817</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK4" t="n">
         <v>0</v>
@@ -1813,254 +1813,254 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2909987760469096</v>
+        <v>2.727665148032607</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3100785085159086</v>
+        <v>3.617046289990368</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4951693318056659</v>
+        <v>0.7434930098054522</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4348285204760251</v>
+        <v>1.056671494420486</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6350229330809504</v>
+        <v>-0.3275545759816759</v>
       </c>
       <c r="F5" t="n">
-        <v>30.05675146771037</v>
+        <v>75.63802516935783</v>
       </c>
       <c r="G5" t="n">
-        <v>10.49510763209393</v>
+        <v>40.94026726439795</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.03330433702000734</v>
+        <v>-0.1021361152508693</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6761363636363636</v>
+        <v>0.2386363636363636</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.3686847062565234</v>
+        <v>-0.3684723745015711</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Raul Rosas Jr.</t>
+          <t>Kennedy Nzechukwu</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>-0.8333333333333334</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.7370591512695293</v>
+        <v>0.8948296456161862</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.8802172655078875</v>
+        <v>0.8165060270619885</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1213141365132869</v>
+        <v>0.1087812450738686</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8636691713395792</v>
+        <v>-0.1524980158730157</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04090909090909096</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.395718774548311</v>
+        <v>0.4712623502207275</v>
       </c>
       <c r="U5" t="n">
-        <v>1.117280112867407</v>
+        <v>-0.3100553998456694</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.4</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2991825389969845</v>
+        <v>-0.1211547185089379</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3899637743273965</v>
+        <v>-0.04597296465560951</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.05561740756365406</v>
+        <v>1.809752091911076</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.1585948675528543</v>
+        <v>2.609664464382497</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.9420890766624016</v>
+        <v>0.1175870639074216</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.9996325767887735</v>
+        <v>-0.3451388436334868</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.938762067967152</v>
+        <v>-0.296207302673577</v>
       </c>
       <c r="AE5" t="n">
-        <v>48.85658372938218</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.06056486130155799</v>
+        <v>1.795800018950022</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.08775870874725222</v>
+        <v>2.541335939183053</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.2488178833406216</v>
+        <v>0.6406708080429332</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.047192335919759</v>
+        <v>0.129791847600142</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.256280224662965</v>
+        <v>-0.3184975919810063</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.74853228962818</v>
+        <v>-0.2106236048834293</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.4382114544012689</v>
+        <v>-0.2277348011365183</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0722390762289956</v>
+        <v>1.392164932938958</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.03579745722872855</v>
+        <v>1.492898535867045</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.4077118648668359</v>
+        <v>0.7554015625569344</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.2474171886486827</v>
+        <v>1.102354678970437</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.324912264164431</v>
+        <v>2.717096059984931</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.2399740745947636</v>
+        <v>3.038416375626031</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.6718087944473103</v>
+        <v>0.3304098179906027</v>
       </c>
       <c r="AT5" t="n">
-        <v>43.37949606057978</v>
+        <v>15.24592565464201</v>
       </c>
       <c r="AU5" t="n">
-        <v>11.86163776288258</v>
+        <v>7.146432277360679</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.4803717930478494</v>
+        <v>0.2022046725896677</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.2608695652173913</v>
+        <v>1.739130434782609</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.04214701372860906</v>
+        <v>-0.06257711792783917</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0.6666666666666666</v>
+        <v>1.25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>Vince Morales</t>
+          <t>Martin Buday</t>
         </is>
       </c>
       <c r="BB5" t="n">
-        <v>-0.2</v>
+        <v>1.2</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.5593658343597313</v>
+        <v>1.030615310317972</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.2172683861301031</v>
+        <v>0.5509703714353924</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.3343095514600689</v>
+        <v>0.5568489759760582</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.2228949016325828</v>
+        <v>0.1175613637761636</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.07499999999999996</v>
+        <v>-0.125</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.09584866001050969</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.1544861600402617</v>
+        <v>-0.2943978494623656</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.4</v>
+        <v>2.2</v>
       </c>
       <c r="BK5" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.2119204640043059</v>
+        <v>-0.1801309469059558</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0.1882639050186437</v>
+        <v>-0.14272661946539</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.8154942498649839</v>
+        <v>-0.08231968745659397</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.2788818809188809</v>
+        <v>0.07969556025369978</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.06176376710914179</v>
+        <v>0.01538179820545688</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.09899373504024749</v>
+        <v>0.3168414841657645</v>
       </c>
       <c r="BR5" t="n">
-        <v>-0.08643805015894861</v>
+        <v>0.3223381236056845</v>
       </c>
       <c r="BS5" t="n">
-        <v>63.99979019159423</v>
+        <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.6516717464390666</v>
+        <v>0.01814826359231637</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1163686435923746</v>
+        <v>0.2693821723322208</v>
       </c>
       <c r="BV5" t="n">
-        <v>-0.431692887626295</v>
+        <v>0.4191293587007738</v>
       </c>
       <c r="BW5" t="n">
-        <v>0</v>
+        <v>0.3333518251567734</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.276642025328609</v>
+        <v>-0.1906183238723067</v>
       </c>
       <c r="BY5" t="n">
-        <v>1.272912258575483</v>
+        <v>-0.005983917098793037</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.7155692111119241</v>
+        <v>0.02666911658516177</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.4630161318923437</v>
+        <v>0.3880124711231887</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.0562501889173189</v>
+        <v>0.9906280054300201</v>
       </c>
       <c r="CC5" t="n">
-        <v>-1.677966101694915</v>
+        <v>0.406779661016949</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.8181818181818177</v>
+        <v>0.6363636363636359</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH5" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
         <v>0</v>
@@ -2110,254 +2110,254 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.7213733258363317</v>
+        <v>-0.2636008498550408</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6955302948576146</v>
+        <v>-0.2777630620932378</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5137342110274061</v>
+        <v>-0.3390746124903616</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4477358719528415</v>
+        <v>-0.4122517807884113</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3871077499153316</v>
+        <v>-0.2536711377356614</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>59.02094069576252</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>24.1402735676147</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9807381632906674</v>
+        <v>0.6042722305017386</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4375</v>
+        <v>0.5568181818181818</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2560705299583396</v>
+        <v>-0.201815133540149</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.8333333333333334</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.5</v>
+        <v>4.5</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>David Martinez</t>
+          <t>Brad Tavares</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>-1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03671681655587231</v>
+        <v>0.1493104075209481</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7720672226333096</v>
+        <v>-0.04519301989005575</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3385899402253221</v>
+        <v>-0.1213694677570888</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.3367042814273361</v>
+        <v>-0.3370535714285712</v>
       </c>
       <c r="S6" t="n">
-        <v>-1.022727272727273</v>
+        <v>-0.3136363636363637</v>
       </c>
       <c r="T6" t="n">
-        <v>0.9102513747054203</v>
+        <v>0.4482026487281902</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.5408928111971163</v>
+        <v>-0.2358039409221566</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.4</v>
+        <v>0.6</v>
       </c>
       <c r="W6" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.2734503516580105</v>
+        <v>0.06797922335691142</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.2618547814471743</v>
+        <v>0.03286073930803989</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1.035679531393491</v>
+        <v>1.418910741493506</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.9239318359322959</v>
+        <v>1.501676160335529</v>
       </c>
       <c r="AB6" t="n">
-        <v>-8.310237563699913e-06</v>
+        <v>0.003667291399972744</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.5244853326713629</v>
+        <v>0.5600802610855558</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.5129008249651499</v>
+        <v>0.450457749471156</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>3.178865881729257e-07</v>
       </c>
       <c r="AF6" t="n">
-        <v>-1.099255204353444</v>
+        <v>1.09132261580756</v>
       </c>
       <c r="AG6" t="n">
-        <v>-1.060131447838246</v>
+        <v>0.9320151726068302</v>
       </c>
       <c r="AH6" t="n">
-        <v>-2.142945281513419</v>
+        <v>-0.1185115573635066</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.0009614950949978477</v>
+        <v>-0.0009614211024111294</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.4013499186012975</v>
+        <v>-0.4008129798674114</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.2142857142857142</v>
+        <v>-0.2142849988526093</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.2322282117698194</v>
+        <v>-0.2321294711569069</v>
       </c>
       <c r="AM6" t="n">
-        <v>-1.386999192544182</v>
+        <v>0.7438920399722091</v>
       </c>
       <c r="AN6" t="n">
-        <v>-1.249701554343179</v>
+        <v>0.2864750216878418</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.5443634696141778</v>
+        <v>-0.1058623025555642</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.437213397193683</v>
+        <v>-0.0798603799803375</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.3317972350230415</v>
+        <v>-0.1445912395683746</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.5424939258371086</v>
+        <v>-0.08431966239259633</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.251984126984127</v>
+        <v>0.8879126836054637</v>
       </c>
       <c r="AT6" t="n">
-        <v>27.14285714285714</v>
+        <v>17.20460536825662</v>
       </c>
       <c r="AU6" t="n">
-        <v>10.85714285714286</v>
+        <v>8.449340159446889</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.4626167781097358</v>
+        <v>-0.003126028298782457</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.956521739130435</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.1436770207855602</v>
+        <v>-0.04223076568023414</v>
       </c>
       <c r="AY6" t="n">
-        <v>-1.25</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>Saimon Oliveira</t>
+          <t>Gerald Meerschaert</t>
         </is>
       </c>
       <c r="BB6" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.4154206760820578</v>
+        <v>0.2401999400628385</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.1232632360485732</v>
+        <v>-0.03110505931622904</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.1115958259698729</v>
+        <v>0.1111388573098923</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.529591871329552</v>
+        <v>1.424258333473133</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.125</v>
+        <v>0.07499999999999996</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0.2436153441933789</v>
+        <v>-0.1488</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.1284027288486271</v>
+        <v>0.4656021505376343</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-0.4</v>
+        <v>0.6</v>
       </c>
       <c r="BK6" t="n">
-        <v>4</v>
+        <v>8.75</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.2161764705882353</v>
+        <v>0.9574105765706653</v>
       </c>
       <c r="BM6" t="n">
-        <v>-0.1942468823925354</v>
+        <v>1.244791545978512</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.1007883629346907</v>
+        <v>-0.01028361323490711</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.1186074301687898</v>
+        <v>0.3363958131205139</v>
       </c>
       <c r="BP6" t="n">
-        <v>0</v>
+        <v>0.03076359635360947</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.04711809256814786</v>
+        <v>-0.2978432068258432</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.157873521221592</v>
+        <v>-0.2656597425556253</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>2047.990237951316</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.1025402475527869</v>
+        <v>-0.1218101779144603</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.1010616918444162</v>
+        <v>0.04247879444292659</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.2249027478426463</v>
+        <v>0.5074538641530927</v>
       </c>
       <c r="BW6" t="n">
-        <v>15.35710025558502</v>
+        <v>2.005393322739636</v>
       </c>
       <c r="BX6" t="n">
-        <v>-0.2992980100109878</v>
+        <v>0.3031279789744306</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.06080938877893232</v>
+        <v>0.2859482859396748</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0.07005469144762817</v>
+        <v>0.08960639842828902</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.03327592120080036</v>
+        <v>-0.09925356049439768</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.07438868877319567</v>
+        <v>0.07554511187077337</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0.6271186440677966</v>
+        <v>1.169491525423729</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.7272727272727268</v>
+        <v>1.345454545454544</v>
       </c>
       <c r="CE6" t="n">
         <v>0</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS6" t="n">
         <v>0</v>
@@ -2407,272 +2407,272 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.5244589697495261</v>
+        <v>-0.722261873386206</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4553280231251612</v>
+        <v>-0.6952387592999872</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3753871839937288</v>
+        <v>-0.5137595980082659</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3103263593559</v>
+        <v>-0.4474703522087021</v>
       </c>
       <c r="E7" t="n">
-        <v>2.449905368147232</v>
+        <v>-0.3876139857409296</v>
       </c>
       <c r="F7" t="n">
-        <v>6.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.933333333333333</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6824903690816454</v>
+        <v>-0.09915548931942368</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6761363636363636</v>
+        <v>-0.4375</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.5769364516614778</v>
+        <v>-0.4101366847419267</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.8333333333333334</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Ronaldo Rodriguez</t>
+          <t>Torrez Finney</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>-1.166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07446198571808706</v>
+        <v>-0.5348686400980995</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.6226030173568406</v>
+        <v>-0.4138580760602603</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.04466345705685195</v>
+        <v>1.949986947721526</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6789963324523616</v>
+        <v>1.231668650793651</v>
       </c>
       <c r="S7" t="n">
-        <v>0.340909090909091</v>
+        <v>0.8590909090909091</v>
       </c>
       <c r="T7" t="n">
-        <v>0.08010212097407703</v>
+        <v>-1.396573470674795</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.07478947682077021</v>
+        <v>3.600521436792668</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="W7" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="X7" t="n">
-        <v>4.203128637936317</v>
+        <v>-0.2732252064022959</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.713386066049138</v>
+        <v>-0.2617334136382025</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.1060084012943383</v>
+        <v>-1.036278276480383</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.5871758283817321</v>
+        <v>-0.922764252843317</v>
       </c>
       <c r="AB7" t="n">
-        <v>-8.310237563699913e-06</v>
+        <v>-7.655679426618171e-06</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.1042892784868689</v>
+        <v>-0.5249681669428488</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.09361791473222637</v>
+        <v>-0.513400423970425</v>
       </c>
       <c r="AE7" t="n">
-        <v>468.107142857143</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.2640551288900914</v>
+        <v>-1.099478235260969</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.1314714985491151</v>
+        <v>-1.061506713230644</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.000470794587268</v>
+        <v>-2.143786171990905</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.049247539509984</v>
+        <v>-0.0009614211024111294</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.08026998372025949</v>
+        <v>-0.4014053277773896</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.5857142857142857</v>
+        <v>-0.2142857142857142</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.24558768131085</v>
+        <v>-0.2321301318405749</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.01879805980741904</v>
+        <v>-1.385831199483859</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.4242375196121589</v>
+        <v>-1.250936722759657</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.4401617889419089</v>
+        <v>-0.4907933812693419</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.5283584604432312</v>
+        <v>-0.4636181842333369</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0.1331378299120234</v>
+        <v>-0.3695014662756597</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0.2528413511308215</v>
+        <v>-0.3602134544284508</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.2638888888888889</v>
+        <v>1.05601750547046</v>
       </c>
       <c r="AT7" t="n">
-        <v>49.93333333333334</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
-        <v>19.26666666666667</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.4349978659837815</v>
+        <v>-0.2025337282000658</v>
       </c>
       <c r="AW7" t="n">
-        <v>2.043478260869565</v>
+        <v>1.391304347826087</v>
       </c>
       <c r="AX7" t="n">
-        <v>-0.12337101937417</v>
+        <v>-0.7340067420988043</v>
       </c>
       <c r="AY7" t="n">
-        <v>-1.083333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>Kevin Borjas</t>
+          <t>Robert Valentin</t>
         </is>
       </c>
       <c r="BB7" t="n">
-        <v>-0.6</v>
+        <v>1.2</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.472281180278661</v>
+        <v>1.265092597187917</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.5778312802016428</v>
+        <v>-1.017957082716967</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.1672742573424217</v>
+        <v>0.3897076814762458</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0.07865055291287175</v>
+        <v>4.339197727412527</v>
       </c>
       <c r="BG7" t="n">
         <v>-0.625</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.1094272201786652</v>
+        <v>0.1776</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0.3824861600402617</v>
+        <v>-0.3830645161290322</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="BK7" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.0411764705882353</v>
+        <v>-0.2166998120125785</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0.06880220123914306</v>
+        <v>-0.1948237977216719</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.8517857033602229</v>
+        <v>-0.6428196521304876</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.6607573850016716</v>
+        <v>-0.6214066243833685</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.2361740658346477</v>
+        <v>-0.3807017543859649</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.3010105017728724</v>
+        <v>-0.3673864738620211</v>
       </c>
       <c r="BS7" t="n">
-        <v>2184.526041665177</v>
+        <v>8191.953125208617</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.699377073052342</v>
+        <v>-0.6894178182065142</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.5099185787369452</v>
+        <v>-0.710449718481448</v>
       </c>
       <c r="BV7" t="n">
-        <v>-0.07446104489384905</v>
+        <v>-1.300806744365815</v>
       </c>
       <c r="BW7" t="n">
-        <v>0</v>
+        <v>21.33321465446648</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.7740353233223457</v>
+        <v>-0.3000000000000001</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.06080938877893232</v>
+        <v>-0.06154095615562098</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-0.07005469144762817</v>
+        <v>-0.07256841405566676</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.3884883747138079</v>
+        <v>-0.7748610716899957</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.07309545178658733</v>
+        <v>-0.7157629256503467</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0.7627118644067798</v>
+        <v>-0.6779661016949154</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.4727272727272721</v>
+        <v>0.01818181818181843</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
       </c>
       <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
         <v>1</v>
-      </c>
-      <c r="CG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
@@ -2704,254 +2704,254 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7420888103870361</v>
+        <v>-0.5378217403272154</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8343294120097966</v>
+        <v>-0.5082952503119008</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2878615138295657</v>
+        <v>-0.4949092409061656</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1336569860169751</v>
+        <v>-0.4278386246364862</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.379236912377491</v>
+        <v>-0.1796312245764272</v>
       </c>
       <c r="F8" t="n">
-        <v>60.38095238095238</v>
+        <v>9.350392919813839</v>
       </c>
       <c r="G8" t="n">
-        <v>25.80952380952381</v>
+        <v>3.523201342793927</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1247669939107743</v>
+        <v>-0.4955787382016889</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6761363636363636</v>
+        <v>0.7159090909090909</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.7435378479854413</v>
+        <v>-0.6184582359437041</v>
       </c>
       <c r="K8" t="n">
         <v>-0.6666666666666666</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Edgar Chairez</t>
+          <t>Ode Osbourne</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>-0.1666666666666667</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O8" t="n">
-        <v>1.046400091645116</v>
+        <v>0.4796037408542814</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03630852156480279</v>
+        <v>-0.1207027301899773</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03198722239958295</v>
+        <v>-0.3515201805880458</v>
       </c>
       <c r="R8" t="n">
-        <v>1.048342010226797</v>
+        <v>0.2166130952380952</v>
       </c>
       <c r="S8" t="n">
-        <v>-1.022727272727273</v>
+        <v>-0.2590909090909091</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.6347486252945796</v>
+        <v>0.05618772335505579</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.5408928111971163</v>
+        <v>-0.04192513151076227</v>
       </c>
       <c r="V8" t="n">
         <v>-0.6</v>
       </c>
       <c r="W8" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.2387884934342836</v>
+        <v>1.510651348679706</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.2119776802191411</v>
+        <v>1.519641332967771</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.057539572588753</v>
+        <v>-0.4004185204550094</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.9104253583497214</v>
+        <v>-0.1464504690988747</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4775827261770019</v>
+        <v>7.554642636137536</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.572145082617727</v>
+        <v>-0.2769465434765968</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.467921946436005</v>
+        <v>-0.2268151405639596</v>
       </c>
       <c r="AE8" t="n">
-        <v>49.53514739229026</v>
+        <v>341.3333333333334</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.106459280655137</v>
+        <v>-0.5252365293826913</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.070264125953784</v>
+        <v>-0.4143322659585174</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.186391994410667</v>
+        <v>0.1915999168288921</v>
       </c>
       <c r="AI8" t="n">
-        <v>5.625158333145977</v>
+        <v>5.906099867345924</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.09555950442888037</v>
+        <v>-0.3365042695164723</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0.2142857142857142</v>
+        <v>-0.1553248536768792</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.2322282117698194</v>
+        <v>-0.2059403234619993</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.8163039595710624</v>
+        <v>-0.7136805748271722</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.5212357103577067</v>
+        <v>-0.5604857919653843</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.095000020870066</v>
+        <v>-0.4907933812693419</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.347334915486667</v>
+        <v>-0.4636181842333369</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0.07471797098861674</v>
+        <v>-0.3695014662756597</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0642750497941324</v>
+        <v>-0.3602134544284508</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.2608837092986784</v>
+        <v>-0.3056892778993436</v>
       </c>
       <c r="AT8" t="n">
-        <v>24.41622034027619</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>12.75187304493782</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.2022098923507374</v>
+        <v>0.7668641000329056</v>
       </c>
       <c r="AW8" t="n">
-        <v>1.043478260869565</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.04214701372860906</v>
+        <v>0.05950099555779076</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0.8333333333333334</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="AZ8" t="n">
-        <v>2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>CJ Vergara</t>
+          <t>Luis Gurule</t>
         </is>
       </c>
       <c r="BB8" t="n">
-        <v>-0.6</v>
+        <v>-1.4</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.7298272060043447</v>
+        <v>0.5503150614069579</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.6379250958802326</v>
+        <v>1.273546768230509</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.723580644618363</v>
+        <v>0.3897076814762458</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.1223797501174313</v>
+        <v>-0.08346893925413948</v>
       </c>
       <c r="BG8" t="n">
         <v>-0.625</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.09584866001050969</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="BI8" t="n">
-        <v>-0.3824861600402617</v>
+        <v>-0.3830645161290322</v>
       </c>
       <c r="BJ8" t="n">
         <v>-0.6</v>
       </c>
       <c r="BK8" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.2309567406729229</v>
+        <v>-0.2166998120125785</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.3430491392196026</v>
+        <v>-0.1948237977216719</v>
       </c>
       <c r="BN8" t="n">
-        <v>-0.1162152450529203</v>
+        <v>-0.6777469686109767</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0.00749074488940841</v>
+        <v>-0.6214066243833685</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.1128875937606655</v>
+        <v>-0.3807017543859649</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.015474776718627</v>
+        <v>-0.3673864738620211</v>
       </c>
       <c r="BS8" t="n">
-        <v>8.000095368881398</v>
+        <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.02373607145932886</v>
+        <v>-0.7169768733246243</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.2130165733053953</v>
+        <v>-0.710449718481448</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.4772031923080965</v>
+        <v>-1.300806744365815</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.08398542353859274</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0.2992980100109878</v>
+        <v>-0.3000000000000001</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.06080938877893232</v>
+        <v>-0.06154095615562098</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0.07005469144762817</v>
+        <v>-0.07256841405566676</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.09416097073569005</v>
+        <v>-0.8718076365754919</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.3768302192062211</v>
+        <v>-0.8516580559459467</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0.2033898305084745</v>
+        <v>0.4745762711864415</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.7090909090909083</v>
+        <v>0.2727272727272725</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -3001,254 +3001,254 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4038515660882716</v>
+        <v>3.880693034591622</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2951931753035257</v>
+        <v>2.957444708551203</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5137342110274061</v>
+        <v>-0.4235247484878198</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.4477358719528415</v>
+        <v>-0.426124454159905</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0282302924661013</v>
+        <v>-0.3673174347654817</v>
       </c>
       <c r="F9" t="n">
-        <v>32.33333333333333</v>
+        <v>81.31478183444791</v>
       </c>
       <c r="G9" t="n">
-        <v>13.33333333333333</v>
+        <v>38.49159086795358</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9807381632906674</v>
+        <v>0.4612021857923497</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.1988636363636364</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.4936357534994962</v>
+        <v>-0.201815133540149</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4166666666666667</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Jose Daniel Medina</t>
+          <t>Davey Grant</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3333333333333333</v>
+        <v>-0.5</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9142919995773643</v>
+        <v>0.4229820265685673</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.7380852665279996</v>
+        <v>0.7632050550855733</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.887820931077635</v>
+        <v>-0.04465256348010302</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.3367042814273361</v>
+        <v>-0.1524980158730157</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.1227272727272727</v>
+        <v>0.06818181818181826</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.6808680282796543</v>
+        <v>0.01006832036998112</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.3346523977562552</v>
+        <v>-0.07080069886990614</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="W9" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.2734503516580105</v>
+        <v>-0.2614662021315852</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.2618547814471743</v>
+        <v>-0.2463522070813562</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.004372329193466225</v>
+        <v>0.8200368568289984</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01561697089507872</v>
+        <v>0.3777647882758911</v>
       </c>
       <c r="AB9" t="n">
-        <v>-8.310237563699913e-06</v>
+        <v>0.4850956738410065</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.5716782869403608</v>
+        <v>4.542052455892748</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.8111504705072398</v>
+        <v>4.559718014971632</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>4.08484265814098e-05</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.06474490081818249</v>
+        <v>1.840136713386579</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.003799754293326464</v>
+        <v>2.018046751204533</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.2782069312841984</v>
+        <v>0.1941981677844177</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.0009614950949978477</v>
+        <v>0.1221042334943319</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.2006749593006488</v>
+        <v>-0.02439478726462906</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.2857142857142858</v>
+        <v>-0.2142611210833155</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.6914067214055988</v>
+        <v>-0.2320861595228242</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.09854344570801735</v>
+        <v>1.435947700372715</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.1808006998897705</v>
+        <v>1.098224147643915</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.4892499757639735</v>
+        <v>0.9793316766278327</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0.4622444638215953</v>
+        <v>1.225701382809255</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0.3695014662756597</v>
+        <v>0.5582007527651419</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.3578856329945104</v>
+        <v>0.7049004668556752</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.3055555555555556</v>
+        <v>2.075164113785558</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>25.54330708661417</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>8.992125984251969</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.05622421397069285</v>
+        <v>0.5477130635077329</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>4.173913043478261</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.01877099050556165</v>
+        <v>-0.1032698224230492</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.25</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>Ateba Gautier</t>
+          <t>Daniel Santos</t>
         </is>
       </c>
       <c r="BB9" t="n">
-        <v>2</v>
+        <v>-0.8</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0.6035595233046308</v>
+        <v>0.8717758579222039</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.7147116381362089</v>
+        <v>0.3569452278515186</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.558757115206598</v>
+        <v>-0.3345712613562736</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0.07865055291287175</v>
+        <v>-0.08346893925413948</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.625</v>
+        <v>0.375</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.503205465055176</v>
+        <v>0.2727999999999999</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0.3824861600402617</v>
+        <v>0.4191577060931899</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="BK9" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.2161764705882353</v>
+        <v>5.402689002327749</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0.1942468823925354</v>
+        <v>5.960711383594679</v>
       </c>
       <c r="BN9" t="n">
-        <v>-0.6771371689802029</v>
+        <v>0.4891554237253606</v>
       </c>
       <c r="BO9" t="n">
-        <v>-0.6206879627851395</v>
+        <v>0.8476842847075402</v>
       </c>
       <c r="BP9" t="n">
-        <v>0</v>
+        <v>7.937007874015748</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0.3802002031712003</v>
+        <v>0.7819588340931066</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0.3669620741331023</v>
+        <v>0.3400333014084795</v>
       </c>
       <c r="BS9" t="n">
         <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0.717781732869509</v>
+        <v>0.5511736629764484</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0.7061235784155119</v>
+        <v>0.816104662221351</v>
       </c>
       <c r="BV9" t="n">
-        <v>-1.297749639578513</v>
+        <v>0.3715871079490838</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0.2992980100109878</v>
+        <v>0.5267716535433078</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.06080938877893232</v>
+        <v>1.170262769182486</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0.07005469144762817</v>
+        <v>1.827675239074574</v>
       </c>
       <c r="CA9" t="n">
-        <v>-0.8709222293215815</v>
+        <v>0.9854442718214547</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.8502757566516562</v>
+        <v>1.261671726210037</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.593220338983051</v>
+        <v>1.508474576271187</v>
       </c>
       <c r="CD9" t="n">
-        <v>-1.254545454545454</v>
+        <v>0.03636363636363685</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
@@ -3293,266 +3293,266 @@
         <v>0</v>
       </c>
       <c r="CS9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.2978428798830223</v>
+        <v>2.877295666091688</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.102776977803142</v>
+        <v>2.522947928442424</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1840086167372058</v>
+        <v>0.698394018779017</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4469482590505376</v>
+        <v>0.7307478123384773</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4112851844060311</v>
+        <v>-0.1857348251544245</v>
       </c>
       <c r="F10" t="n">
-        <v>47.72660684856253</v>
+        <v>87.20666819256887</v>
       </c>
       <c r="G10" t="n">
-        <v>21.21784776902887</v>
+        <v>30.05044632639048</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5095066484404127</v>
+        <v>0.4105315449577744</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.988636363636364</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1187826117705785</v>
+        <v>-0.3684723745015711</v>
       </c>
       <c r="K10" t="n">
         <v>-0.6666666666666666</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Christian Rodriguez</t>
+          <t>Diana Belbita</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.2746808290323989</v>
+        <v>1.678096693235234</v>
       </c>
       <c r="P10" t="n">
-        <v>0.003666103148290629</v>
+        <v>1.336190503832036</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2619392607688872</v>
+        <v>-0.1980863720340746</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7713327518959703</v>
+        <v>-0.3370535714285712</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4227272727272729</v>
+        <v>0.6681818181818183</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1954006284367634</v>
+        <v>0.1023071263401304</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.04179101067023239</v>
+        <v>-0.1656775630499502</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="X10" t="n">
-        <v>1.805780344153362</v>
+        <v>-0.08535187957761754</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.82593482466735</v>
+        <v>-0.08972861225619125</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.314248883176564</v>
+        <v>2.12985554098349</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.888549566132325</v>
+        <v>1.319813637183309</v>
       </c>
       <c r="AB10" t="n">
-        <v>-8.310237563699913e-06</v>
+        <v>0.007340332446352798</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.3750339069099111</v>
+        <v>0.6698850776597171</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.407946422829052</v>
+        <v>0.647166950991801</v>
       </c>
       <c r="AE10" t="n">
-        <v>402.399373043486</v>
+        <v>85.33333333333336</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.9778546701914955</v>
+        <v>2.211497029853038</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.23026734237222</v>
+        <v>1.600137974248847</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.4787347896223436</v>
+        <v>-0.2572225877851784</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.1908684833006201</v>
+        <v>-0.0009614211024111294</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.3511536185821277</v>
+        <v>-0.1354708527827331</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.1258403746043371</v>
+        <v>0.3953045809763595</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.08508256228023624</v>
+        <v>0.8500252443752597</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.087136156360309</v>
+        <v>1.88805233662108</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.155365068847562</v>
+        <v>0.9471921310823025</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.2828735363974894</v>
+        <v>0.02154058457506041</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.1551898356108279</v>
+        <v>0.04000525476762367</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.2143428419088242</v>
+        <v>-0.1759530791788855</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.2143130578025633</v>
+        <v>-0.08033681603215168</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.6064135983490822</v>
+        <v>0.1411907955106938</v>
       </c>
       <c r="AT10" t="n">
-        <v>8.500488758553274</v>
+        <v>19.25806451612903</v>
       </c>
       <c r="AU10" t="n">
-        <v>3.053763440860215</v>
+        <v>8.032258064516128</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.08976146440935173</v>
+        <v>0.3562026982560053</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.2173913043478261</v>
+        <v>1.608695652173913</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.07968899473973214</v>
+        <v>0.222271813538631</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="AZ10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>Melquizael Costa</t>
+          <t>Dione Barbosa</t>
         </is>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.22475647520549</v>
+        <v>-0.1228616654132038</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.1705287517134222</v>
+        <v>-0.44926269635044</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.1667963308928725</v>
+        <v>0.2782801518097043</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.228046416784098</v>
+        <v>2.127864394079193</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.03500000000000003</v>
+        <v>-0.06499999999999995</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0.03993694167104573</v>
+        <v>-0.1488</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.5717360621819604</v>
+        <v>0.3473799283154121</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="BK10" t="n">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.5741461100569261</v>
+        <v>-0.1742249650050067</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.5194266702103417</v>
+        <v>-0.1339111463248216</v>
       </c>
       <c r="BN10" t="n">
-        <v>-0.412349622964105</v>
+        <v>-0.09299608946988648</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.344355532794173</v>
+        <v>-0.02551219623087591</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.08408111757843059</v>
+        <v>-0.2578947368421052</v>
       </c>
       <c r="BR10" t="n">
-        <v>-0.1727080747860569</v>
+        <v>-0.2273277079462522</v>
       </c>
       <c r="BS10" t="n">
-        <v>1024.997556206535</v>
+        <v>528.5131048521688</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0.3575145648941745</v>
+        <v>-0.1631287656284088</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0.3361851041136744</v>
+        <v>-0.1629056679320518</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.2040426035402879</v>
+        <v>0.06741357004116895</v>
       </c>
       <c r="BW10" t="n">
-        <v>6.893431512575412</v>
+        <v>5.849429824611776</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.3712787250818766</v>
+        <v>0.7838709677419362</v>
       </c>
       <c r="BY10" t="n">
-        <v>1.023545690151068</v>
+        <v>1.028027368346158</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.7661511362027129</v>
+        <v>1.685173096190426</v>
       </c>
       <c r="CA10" t="n">
-        <v>-0.1486927586274024</v>
+        <v>-0.2111637065090059</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.064989649676977</v>
+        <v>-0.1473413591450954</v>
       </c>
       <c r="CC10" t="n">
-        <v>-0.525423728813559</v>
+        <v>-0.2711864406779658</v>
       </c>
       <c r="CD10" t="n">
-        <v>-0.2545454545454541</v>
+        <v>0.5454545454545451</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>1</v>
       </c>
-      <c r="CF10" t="n">
-        <v>0</v>
-      </c>
       <c r="CG10" t="n">
         <v>0</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="CR10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
         <v>0</v>
@@ -3595,275 +3595,275 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1862495268698532</v>
+        <v>0.262364299020548</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1531186274006106</v>
+        <v>0.3895229019175513</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1534379385297508</v>
+        <v>0.02192010452100979</v>
       </c>
       <c r="D11" t="n">
-        <v>0.334717733885553</v>
+        <v>0.1349738831826392</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07664788517785151</v>
+        <v>1.056579972433195</v>
       </c>
       <c r="F11" t="n">
-        <v>43.82864818601605</v>
+        <v>34.23091976516633</v>
       </c>
       <c r="G11" t="n">
-        <v>17.79220997979683</v>
+        <v>13.83953033268102</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7242450602709085</v>
+        <v>0.4492796820665673</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9147727272727273</v>
+        <v>1.670454545454545</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1311194827153669</v>
+        <v>-0.7434511666647707</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.75</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Loopy Godinez</t>
+          <t>Rhys McKee</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>-1.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3292418775630364</v>
+        <v>2.291498597997138</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2790468511718235</v>
+        <v>0.5633264101740166</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.2619392607688872</v>
+        <v>0.03206434079688279</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5866599130087526</v>
+        <v>-0.3370535714285712</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2590909090909091</v>
+        <v>-1.022727272727273</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4721170463472114</v>
+        <v>-0.4511257094807652</v>
       </c>
       <c r="U11" t="n">
-        <v>0.6759256281039645</v>
+        <v>-0.5410599387188202</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.8</v>
+        <v>0.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.232927291881706</v>
+        <v>-0.1664423734753564</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.2288603975579007</v>
+        <v>-0.1572449275673741</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.7363748841890309</v>
+        <v>0.3137642269649999</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.842695333445223</v>
+        <v>0.2908162041063039</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.02937473204868933</v>
+        <v>-7.655679426618171e-06</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1347604804611926</v>
+        <v>-0.06700772718739421</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.1178525153432755</v>
+        <v>0.00214720784493952</v>
       </c>
       <c r="AE11" t="n">
-        <v>243.8058036281941</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.5649379464436544</v>
+        <v>0.2117860243759967</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.5177571015198044</v>
+        <v>0.1771447033392336</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.05791109839215357</v>
+        <v>-0.06938292988701535</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.991172697913467</v>
+        <v>-0.0009614211024111294</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.3658718912339841</v>
+        <v>0.5200202093711001</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.9231782304775717</v>
+        <v>-0.2142857142857142</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.162710528550037</v>
+        <v>-0.2321301318405749</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.2841902820389815</v>
+        <v>0.007311907378536044</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.02569911466224237</v>
+        <v>-0.1380118858623018</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.867486267120277</v>
+        <v>-0.4907933812693419</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.389327103293939</v>
+        <v>-0.4636181842333369</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3.070381231671554</v>
+        <v>-0.3695014662756597</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.682930693536101</v>
+        <v>-0.3602134544284508</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.07078853046595</v>
+        <v>-0.3056892778993436</v>
       </c>
       <c r="AT11" t="n">
-        <v>32.35483870967742</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>17.35483870967742</v>
+        <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.5908474415516669</v>
+        <v>-0.003126028298782457</v>
       </c>
       <c r="AW11" t="n">
-        <v>1.043478260869565</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0593829933283419</v>
+        <v>-0.08292347017544419</v>
       </c>
       <c r="AY11" t="n">
-        <v>-1.75</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>Julia Polastri</t>
+          <t>Daniel Frunza</t>
         </is>
       </c>
       <c r="BB11" t="n">
-        <v>-1.6</v>
+        <v>0.4</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.9457449434208547</v>
+        <v>1.026833418594264</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.7948367257076622</v>
+        <v>0.5844229823981295</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.6122237818732649</v>
+        <v>0.0554250924766215</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.5244403561780373</v>
+        <v>-0.08346893925413948</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.9750000000000001</v>
+        <v>-0.625</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.1094272201786652</v>
+        <v>0.09599999999999996</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.08618050662640496</v>
+        <v>-0.3830645161290322</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.8</v>
+        <v>0.3</v>
       </c>
       <c r="BK11" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.1648719165085389</v>
+        <v>-0.2166998120125785</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.1699473532140874</v>
+        <v>-0.1948237977216719</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.2754837987617327</v>
+        <v>-0.6777469686109767</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.4912361564560526</v>
+        <v>-0.6214066243833685</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>1.111027867004238</v>
+        <v>-0.3807017543859649</v>
       </c>
       <c r="BR11" t="n">
-        <v>1.313743116856124</v>
+        <v>-0.3673864738620211</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.5557019867376842</v>
+        <v>-0.7169768733246243</v>
       </c>
       <c r="BU11" t="n">
-        <v>1.037306037573673</v>
+        <v>-0.710449718481448</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.6046099589998258</v>
+        <v>-1.300806744365815</v>
       </c>
       <c r="BW11" t="n">
-        <v>1.387092926310906</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.2200568286986899</v>
+        <v>-0.3000000000000001</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.3406105202480387</v>
+        <v>-0.06154095615562098</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.6460023451301772</v>
+        <v>-0.07256841405566676</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.7303947029284756</v>
+        <v>-0.8718076365754919</v>
       </c>
       <c r="CB11" t="n">
-        <v>1.269798554942793</v>
+        <v>-0.8516580559459467</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.2033898305084751</v>
+        <v>-0.1355932203389826</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0.5090909090909083</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
       </c>
       <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" t="n">
         <v>1</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>0</v>
       </c>
       <c r="CL11" t="n">
         <v>0</v>
@@ -3892,260 +3892,260 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1484075557068134</v>
+        <v>1.571440677216973</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2482776922566631</v>
+        <v>1.58356788507179</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1583235864477751</v>
+        <v>0.1567361681280923</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02511754484070937</v>
+        <v>0.3469675674682173</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.2070218066792501</v>
+        <v>-0.1548919946362256</v>
       </c>
       <c r="F12" t="n">
-        <v>46.59542255183342</v>
+        <v>33.48700344252669</v>
       </c>
       <c r="G12" t="n">
-        <v>22.36944883797113</v>
+        <v>15.76882452221501</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6795078911395552</v>
+        <v>0.774167908594138</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5170454545454546</v>
+        <v>1.948863636363636</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04781878455338511</v>
+        <v>-0.28514375402086</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="L12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Loma Lookboonmee</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>-1.833333333333333</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.2423231162885758</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.2524040736449284</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.9526671921207112</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.2447757936507935</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.340909090909091</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.2637250367878916</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.2427054610293699</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.0683517297443674</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.07736658948162276</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.2128147052283147</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.2430122434751034</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-7.655679426618171e-06</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.470347185859177</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.06869059236421</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21.33301289868663</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.2142953510141336</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.388422307741854</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.3698893262393936</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.9835340059272822</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.03066050046361115</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.5849762846685818</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.011330356141356</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.04560828687149952</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.0671991255368342</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.8932896637133569</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.9840523286596203</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.5973434535104367</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>1.006941518586198</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.2080430771871112</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>29.98039215686275</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>14.00392156862745</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.1034879894702205</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>3.91304347826087</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.1001937000530008</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>Istela Nunes</t>
+        </is>
+      </c>
+      <c r="BB12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.7658828896583582</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.6111850711683188</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.1111388573098923</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>-0.08346893925413948</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>-0.04000000000000001</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>-0.3830645161290322</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="BK12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Rafa Garcia</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>-0.3333333333333333</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.6453576692965848</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.1946559767775151</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-0.1979648159697218</v>
-      </c>
-      <c r="R12" t="n">
-        <v>-0.05969502309650952</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.1772727272727273</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.3337588373919874</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.853292383663105</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="X12" t="n">
-        <v>-0.1356280661225259</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>-0.1497934996161521</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.900295849605809</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1.5839982163227</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>-8.310237563699913e-06</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>-0.2502008533921763</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>-0.1958255260407502</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.6395159024821513</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0.8391306848381749</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0.09576226494835881</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0.002944580561890407</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>-0.08879375895370691</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.01109433703152525</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>-0.1412991871433976</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0.748159618370505</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0.9679291464340493</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0.738202765565616</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0.6289929274437245</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>-0.09480638885797335</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0.01626120556472499</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>-0.1682967674108602</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>46.59157884561701</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>19.54751738568781</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0.4428889837340542</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>2.043478260869565</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>-0.001535010905828587</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BA12" t="inlineStr">
-        <is>
-          <t>Vinc Pichel</t>
-        </is>
-      </c>
-      <c r="BB12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>0.0896500547167967</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>0.1438203891896044</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>0.1667963308928725</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>0.1223797501174313</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>0.4550000000000001</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>-0.3794009458749343</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>0.7912916177375159</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>3</v>
-      </c>
       <c r="BL12" t="n">
-        <v>0.03012140084531982</v>
+        <v>0.1963888961394926</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.08334462832434193</v>
+        <v>-0.1355832583239509</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.4530912543369165</v>
+        <v>0.1836565347058679</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.1880501068756472</v>
+        <v>0.3091117356879328</v>
       </c>
       <c r="BP12" t="n">
-        <v>6.008148238123569e-05</v>
+        <v>15.81176470588235</v>
       </c>
       <c r="BQ12" t="n">
-        <v>2.071382415440773</v>
+        <v>0.2378052975576196</v>
       </c>
       <c r="BR12" t="n">
-        <v>2.305951127721045</v>
+        <v>0.2246205934115094</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.9999966695897662</v>
+        <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.6170001037922969</v>
+        <v>0.2415378711558454</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.5889875435994354</v>
+        <v>0.375635626249666</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.1172505764505047</v>
+        <v>0.4318879094360177</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.002625145205923048</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.03845760553449093</v>
+        <v>-0.3000000000000001</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.5045108234554734</v>
+        <v>-0.06154095615562098</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.9278293952523978</v>
+        <v>-0.07256841405566676</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.3813800462677993</v>
+        <v>0.01164169735655411</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.2232371322437215</v>
+        <v>0.02038010695745217</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.03389830508474626</v>
+        <v>-0.2033898305084745</v>
       </c>
       <c r="CD12" t="n">
-        <v>2.254545454545453</v>
+        <v>0.5090909090909095</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
       </c>
       <c r="CF12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG12" t="n">
         <v>0</v>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="CI12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ12" t="n">
         <v>0</v>
@@ -4189,287 +4189,287 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5467840770234389</v>
+        <v>1.527977924115989</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2279171709440644</v>
+        <v>1.749583676837832</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3288709954760881</v>
+        <v>0.2236983898916051</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3421059261769835</v>
+        <v>0.2116121689619293</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5427599792590306</v>
+        <v>0.5272125907016123</v>
       </c>
       <c r="F13" t="n">
-        <v>23.98351950192272</v>
+        <v>44.9152728604566</v>
       </c>
       <c r="G13" t="n">
-        <v>11.27571262894464</v>
+        <v>23.19692345256989</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0571641605567291</v>
+        <v>0.4313959264778937</v>
       </c>
       <c r="I13" t="n">
-        <v>1.630681818181818</v>
+        <v>0.4375</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.1187826117705785</v>
+        <v>-0.5351296154629932</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Jamall Emmers</t>
+          <t>Victor Henry</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.3333333333333333</v>
+        <v>-0.6666666666666666</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4990951387930025</v>
+        <v>1.173219740854282</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7853920975376742</v>
+        <v>1.833666242278577</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2619392607688872</v>
+        <v>0.6457995750127687</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.1520314425401184</v>
+        <v>0.03205753968253977</v>
       </c>
       <c r="S13" t="n">
-        <v>0.06818181818181826</v>
+        <v>-0.04090909090909096</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6796543597800472</v>
+        <v>0.5404414546983393</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2139471019964355</v>
+        <v>-0.194553130409094</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="W13" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="X13" t="n">
-        <v>1.030663187635126</v>
+        <v>1.35542849081695</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.062235666251465</v>
+        <v>1.34566954566544</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.1790663415499207</v>
+        <v>0.6924210635517367</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0545927908206145</v>
+        <v>1.157081172084814</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.04502761293961</v>
+        <v>11.28770778199695</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.6456457459820965</v>
+        <v>0.6207133838297572</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.6441792212582648</v>
+        <v>0.4838055190162142</v>
       </c>
       <c r="AE13" t="n">
-        <v>292.5848222460565</v>
+        <v>21.33561225735564</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.0414048981886944</v>
+        <v>0.8216573524324028</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.1290517905230262</v>
+        <v>1.244414033145531</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.7464735482883874</v>
+        <v>0.5409951711119791</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.02980822575041456</v>
+        <v>0.4913462712052813</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.4285426433554599</v>
+        <v>0.9561493529806676</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.2176864519841997</v>
+        <v>1.285897413537506</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.000109694786318987</v>
+        <v>0.4603880359793886</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.09952932821501369</v>
+        <v>0.9752624969272227</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.04136086558753995</v>
+        <v>1.270738680745459</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.628397083059556</v>
+        <v>-0.02020514597522419</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.1254013387083865</v>
+        <v>-0.2118064647328566</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.2668621700879765</v>
+        <v>-0.096774193548387</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.1410747058580119</v>
+        <v>-0.09729903654101832</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.3277777777777778</v>
+        <v>1.6627644055434</v>
       </c>
       <c r="AT13" t="n">
-        <v>19.53333333333333</v>
+        <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.066666666666666</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.5474462939251672</v>
+        <v>0.7036854228364594</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.130434782608696</v>
+        <v>2.260869565217391</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.3670430363108526</v>
+        <v>-0.1439625269182593</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.1666666666666667</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="AZ13" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>Gabriel Miranda</t>
+          <t>Pedro Falcao</t>
         </is>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.9419569129398634</v>
+        <v>-0.06991518128128109</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.1232632360485732</v>
+        <v>-0.09801028124170284</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0.1672742573424217</v>
+        <v>0.2782801518097043</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.228046416784098</v>
+        <v>-0.08346893925413948</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.03500000000000003</v>
+        <v>-0.185</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0.718864950078823</v>
+        <v>0.4087999999999999</v>
       </c>
       <c r="BI13" t="n">
-        <v>1.243069395515294</v>
+        <v>0.4909354838709676</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="BK13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.2161764705882353</v>
+        <v>-0.2166998120125785</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0.1942468823925354</v>
+        <v>-0.1948237977216719</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0.1907674881291391</v>
+        <v>0.1022964327866109</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.1832715219540647</v>
+        <v>0.148290345313601</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.05488751612704526</v>
+        <v>0.9789473684210526</v>
       </c>
       <c r="BR13" t="n">
-        <v>-0.2778990640123057</v>
+        <v>0.8572299152989327</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0.1141088908664347</v>
+        <v>0.1097947802186829</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0.2557375942849723</v>
+        <v>0.09195119923275802</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.1148827549790812</v>
+        <v>0.1599352554548134</v>
       </c>
       <c r="BW13" t="n">
-        <v>2.866658714375873</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>1.70736865665568</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="BY13" t="n">
-        <v>1.479878452534109</v>
+        <v>0.531031290503241</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.8453389849317891</v>
+        <v>0.1920488490447066</v>
       </c>
       <c r="CA13" t="n">
-        <v>-0.22424155972703</v>
+        <v>0.0007114473939737777</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0.3342741989949907</v>
+        <v>-0.05138673309408043</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.8983050847457636</v>
+        <v>1.271186440677966</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.9272727272727269</v>
+        <v>0.5090909090909095</v>
       </c>
       <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="n">
         <v>1</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>0</v>
       </c>
       <c r="CP13" t="n">
         <v>0</v>
@@ -4486,260 +4486,260 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.107117123541149</v>
+        <v>0.554002231332297</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8057339034702189</v>
+        <v>0.5646835311682846</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2172762959552405</v>
+        <v>0.01476988244999048</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03550733416201675</v>
+        <v>0.03972069427102266</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5579982036669088</v>
+        <v>-0.3623390123965097</v>
       </c>
       <c r="F14" t="n">
-        <v>47.66666666666666</v>
+        <v>81.77568965089731</v>
       </c>
       <c r="G14" t="n">
-        <v>17</v>
+        <v>28.95967285093851</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01143283211134596</v>
+        <v>0.4999503229011426</v>
       </c>
       <c r="I14" t="n">
-        <v>1.948863636363636</v>
+        <v>0.7556818181818182</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1311194827153669</v>
+        <v>-0.7851154769051263</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>MarQuel Mederos</t>
+          <t>Vanessa Demopoulos</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>-0.5</v>
+        <v>-2.166666666666667</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1405160317519629</v>
+        <v>1.196812121806663</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3812042254386178</v>
+        <v>0.1502438773567996</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.03198722239958295</v>
+        <v>-0.2748032763110604</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.3367042814273361</v>
+        <v>0.1243353174603175</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.022727272727273</v>
+        <v>-0.7227272727272729</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6796543597800472</v>
+        <v>-0.7739615303762875</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.5408928111971163</v>
+        <v>-0.3719316156152634</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="W14" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.2734503516580105</v>
+        <v>-0.122487891170217</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.2618547814471743</v>
+        <v>-0.1006083658708574</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.5038080313108934</v>
+        <v>2.310823355315386</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.05476483784621919</v>
+        <v>1.82883382324065</v>
       </c>
       <c r="AB14" t="n">
-        <v>-8.310237563699913e-06</v>
+        <v>0.01468812435930649</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.028413128445246</v>
+        <v>0.421980955734418</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.031825686419305</v>
+        <v>0.4440318989456449</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>42.6660970041218</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.6527449539461176</v>
+        <v>1.928207665606037</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.3761756750393771</v>
+        <v>1.377064220358434</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.3281552799510526</v>
+        <v>-0.2299445664572244</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.0009614950949978477</v>
+        <v>-0.0007210653724094612</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.4013499186012975</v>
+        <v>0.3731695947041562</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.2142857142857142</v>
+        <v>-0.2124088796512487</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.2322282117698194</v>
+        <v>-0.2300169880642514</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.4996681510373447</v>
+        <v>1.929634252191119</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.1015504692111299</v>
+        <v>1.235162292147677</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.488669798474942</v>
+        <v>0.5680301481424229</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.357134550056826</v>
+        <v>0.2918169742681039</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.9715115771689937</v>
+        <v>0.4876413908671971</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.381672508658327</v>
+        <v>0.5412074068998893</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0.1860586824500831</v>
+        <v>0.3334792122538294</v>
       </c>
       <c r="AT14" t="n">
-        <v>55.54871098842355</v>
+        <v>43.57142857142857</v>
       </c>
       <c r="AU14" t="n">
-        <v>19.06903147903179</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.4882629107981221</v>
+        <v>0.7668641000329056</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.08695652173913</v>
+        <v>1.478260869565217</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.03907699191695166</v>
+        <v>-0.06257711792783917</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>-1.916666666666667</v>
       </c>
       <c r="AZ14" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>Austin Hubbard</t>
+          <t>Talita Alencar</t>
         </is>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.4192087065630492</v>
+        <v>0.750755322763523</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.3107476549634653</v>
+        <v>-0.2351659861889239</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0.0002389632247747203</v>
+        <v>-0.8359951448557099</v>
       </c>
       <c r="BF14" t="n">
-        <v>-0.07865055291287175</v>
+        <v>-0.08346893925413948</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.05500000000000005</v>
+        <v>-0.365</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.1908985811875986</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.2677360621819605</v>
+        <v>0.4613799283154121</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="BK14" t="n">
-        <v>3.75</v>
+        <v>0.75</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.1915805349575581</v>
+        <v>0.9119175513314727</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0.1746046151660963</v>
+        <v>0.7493222989295074</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.9418030297818236</v>
+        <v>0.7842107069294912</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.4189652948756135</v>
+        <v>0.07791805094130674</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.4230053717902598</v>
+        <v>0.2408521303258146</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.4726531113263654</v>
+        <v>-0.1288248396098873</v>
       </c>
       <c r="BS14" t="n">
-        <v>7.999973535531474</v>
+        <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.9535652429791737</v>
+        <v>0.6649128904549034</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.5828956981812311</v>
+        <v>-0.01385991079548932</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0.2381367656871937</v>
+        <v>-0.5651045692736738</v>
       </c>
       <c r="BW14" t="n">
         <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>2.953329268931696</v>
+        <v>2.200000000000001</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.4880032999676888</v>
+        <v>0.4463781124091179</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.264168549286444</v>
+        <v>0.8346907737170419</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.6268513447803834</v>
+        <v>0.4785195171867763</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.1475193829350545</v>
+        <v>-0.1851247978294327</v>
       </c>
       <c r="CC14" t="n">
-        <v>-0.3559322033898302</v>
+        <v>1.033898305084746</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.6181818181818175</v>
+        <v>0.8363636363636361</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="CI14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
